--- a/backend-ects/Οδηγός για τη λήψη πτυχίου.xlsx
+++ b/backend-ects/Οδηγός για τη λήψη πτυχίου.xlsx
@@ -9,8 +9,6 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -22,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="271">
   <si>
     <t xml:space="preserve">Εθνικό Καποδιστριακό Πανεπιστήμιο Αθηνών</t>
   </si>
@@ -31,6 +29,12 @@
   </si>
   <si>
     <t xml:space="preserve">Τμήμα Πληροφορικής</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECTS Tool</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Εxcel by Καραμπάτσης Α.Μ.)</t>
   </si>
   <si>
     <r>
@@ -1051,227 +1055,6 @@
   <si>
     <t xml:space="preserve">Μέσος Όρος:</t>
   </si>
-  <si>
-    <t xml:space="preserve">4 υποχρεωτικά Β κατ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 υποχρεωτικά Α κατ (αν θέλω)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 από τα 8 προαιρετικά  ειδικότητας Β</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 από τα 8 προαιρετικά ειδικότητας Α</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Δίκτυα Επικοινωνιών ΙΙ 5ο</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Υλοποίηση Συστημάτων 
-Βάσεων Δεδομένων   5ο</t>
-  </si>
-  <si>
-    <t xml:space="preserve">---------------</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ή 2 ελεύθερα</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 απ' αυτά για την ειδίκευση της Β κατεύθυνσης</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 απ' αυτά για την ειδίκευση της Α κατεύθυνσης</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Διαχείριση Δικτύων  6ο</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Μεταγλωττιστές   6ο</t>
-  </si>
-  <si>
-    <t xml:space="preserve">----------------</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Κύματα, Κυματοδηγοί, 
-Κεραίες   5ο</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Τεχνητή Νοημοσύνη 5ο ΔΕΝ</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="161"/>
-      </rPr>
-      <t xml:space="preserve">Αρχιτεκτονική 
-Υπολογιστών ΙΙ    </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="161"/>
-      </rPr>
-      <t xml:space="preserve"> 5ο</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Τηλεπικοινωνιακά Δίκτυα  5ο</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Παράλληλα Συστήματα  5ο</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ψηφιακή Επεξεργασία 
-Σήματος  5ο</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Τεχνολογίες Εφαρμογών 
-Διαδικτύου   6ο</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Τεχνολογίες Εφαρμογών 
-Διαδικτύου 6ο</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ηλεκτρονική    6ο</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ασύρματα Δίκτυα 
-Αισθητήρων   6ο</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ανάλυση/Σχεδίαση 
-Συστημάτων Λογισμικού  6ο</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Θεωρία Πληροφορίας  
-Και Κωδίκων    6ο</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Επεξεργασία Στοχαστικών 
-Σημάτων   6ο</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Επικοινωνία Ανθρώπου 
-Μηχανής   7ο</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Οπτικές Επικοινωνίες και 
-Οπτικά Δίκτυα   7ο</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Πληροφοριακά Συστήματα ΔΕΝ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ψηφιακές Επικοινωνίες  7ο</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Προστασία  και Ασφάλεια 
-Υπολογ/κών Συστημάτων 8ο</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Συστήματα Κινητών και 
-Προσ/κών Επικοινωνιών  7ο</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Τεχνολογία Λογισμικού ΔΕΝ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">αξίζουν:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Διδακτική της Πληροφορικής 8ο</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 ects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Αν πάω για 2 ειδικότητες:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Αν πάω για 1 ειδικότητα:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ιστορία της Πληροφορικής και των Τηλεπικοινωνιών   8ο</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ECTS:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">από τα υποχρεωτικά</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Κρυπτογραφία   7ο</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 ects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">από τα εργαστήρια</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Εργαστήριο Ηλεκτρονικής 6ο αλλά</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 ects εκαστο</t>
-  </si>
-  <si>
-    <t xml:space="preserve">από τα 4 συν 2 υποχρεωτικά 2 ειδικοτήτων</t>
-  </si>
-  <si>
-    <t xml:space="preserve">από τα 4 υποχρεωτικά μίας ειδικότητας</t>
-  </si>
-  <si>
-    <t xml:space="preserve">πρώτα Εργαστήριο Κυκλωμάτων 3ο</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 ects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">πρακτική ή πτυχιακή</t>
-  </si>
-  <si>
-    <t xml:space="preserve">απ'τα γενικής παιδείας</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Εισαγωγή στην Παιδαγωγική  8ο</t>
-  </si>
-  <si>
-    <t xml:space="preserve">project</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Βιοπληροφορική 6ο</t>
-  </si>
-  <si>
-    <t xml:space="preserve">από τα 7(ένα διπλό) βασ. προαιρ. των 2 ειδικοτήτων</t>
-  </si>
-  <si>
-    <t xml:space="preserve">από τα 4 βασικά προαιρετικά της ειδικότητας</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Θεωρία και Μεθοδολογία της Διδασκαλίας 6ο</t>
-  </si>
-  <si>
-    <t xml:space="preserve">προαιρετικό</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ιστορία της Τεχνολογίας 6o</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ελεύθερα</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 ελεύθερα</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 προαιρετικά μαζί με εργαστήριο κυκλωμάτων</t>
-  </si>
 </sst>
 </file>
 
@@ -1281,10 +1064,10 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="#0.0"/>
     <numFmt numFmtId="166" formatCode="General"/>
-    <numFmt numFmtId="167" formatCode="0.00"/>
-    <numFmt numFmtId="168" formatCode="@"/>
+    <numFmt numFmtId="167" formatCode="0"/>
+    <numFmt numFmtId="168" formatCode="0.00"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -1313,11 +1096,16 @@
       <charset val="161"/>
     </font>
     <font>
-      <b val="true"/>
       <sz val="16"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="161"/>
     </font>
     <font>
       <b val="true"/>
@@ -1362,7 +1150,7 @@
       <charset val="161"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1372,7 +1160,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFF0F0F0"/>
+        <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
     <fill>
@@ -1384,7 +1172,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF99"/>
-        <bgColor rgb="FFF0F0F0"/>
+        <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
     <fill>
@@ -1399,26 +1187,13 @@
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF0F0F0"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -1447,7 +1222,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="36">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1465,14 +1240,18 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1488,19 +1267,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1512,7 +1291,7 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1520,7 +1299,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1528,11 +1307,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1564,7 +1343,7 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1572,7 +1351,7 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1584,36 +1363,8 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1951,66 +1702,6 @@
       </fill>
     </dxf>
   </dxfs>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFF0F0F0"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -2021,8 +1712,8 @@
   </sheetPr>
   <dimension ref="A1:Y1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A150" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E163" activeCellId="0" sqref="E163"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.55859375" defaultRowHeight="39.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2060,33 +1751,37 @@
       <c r="C3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="19.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
+      <c r="A4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
     </row>
     <row r="5" customFormat="false" ht="19.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3"/>
+      <c r="A5" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
     </row>
     <row r="6" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
+      <c r="A6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
     </row>
     <row r="7" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C7" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>5</v>
+      <c r="C7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="39.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C8" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D8" s="1" t="n">
         <v>0</v>
@@ -2094,79 +1789,79 @@
     </row>
     <row r="9" customFormat="false" ht="39.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C9" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D9" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="39.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C10" s="7"/>
-      <c r="D10" s="8" t="str">
+      <c r="C10" s="8"/>
+      <c r="D10" s="9" t="str">
         <f aca="false">IF($D$8+$D$9 = 1, "Συνεχίστε!","Διαλέξτε ΜΙΑ κατεύθυνση!")</f>
         <v>Συνεχίστε!</v>
       </c>
-      <c r="E10" s="8"/>
+      <c r="E10" s="9"/>
     </row>
     <row r="12" customFormat="false" ht="48.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
+      <c r="A12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
     </row>
     <row r="13" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="5" t="s">
+      <c r="A13" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="B13" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="K13" s="9" t="s">
+      <c r="C13" s="6" t="s">
         <v>13</v>
       </c>
+      <c r="D13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K13" s="10" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="39.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="10" t="str">
+      <c r="A14" s="11" t="str">
         <f aca="false">IF($D$8, "Επιλέξτε το πολύ 2!", "Επιλέξτε το πολύ 1!")</f>
         <v>Επιλέξτε το πολύ 1!</v>
       </c>
-      <c r="B14" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>15</v>
+      <c r="B14" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>17</v>
       </c>
       <c r="D14" s="1" t="n">
         <v>0</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="39.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="10" t="str">
+      <c r="A15" s="11" t="str">
         <f aca="false">IF($D$8, "Επιλέξτε το πολύ 2!", "Επιλέξτε το πολύ 1!")</f>
         <v>Επιλέξτε το πολύ 1!</v>
       </c>
-      <c r="B15" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>17</v>
+      <c r="B15" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>19</v>
       </c>
       <c r="D15" s="1" t="n">
         <v>0</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M15" s="1" t="n">
         <f aca="false">SUM($D$14:$D$19) = 1</f>
@@ -2174,21 +1869,21 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="39.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="10" t="str">
+      <c r="A16" s="11" t="str">
         <f aca="false">IF($D$8, "Επιλέξτε το πολύ 2!", "Επιλέξτε το πολύ 1!")</f>
         <v>Επιλέξτε το πολύ 1!</v>
       </c>
-      <c r="B16" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>18</v>
+      <c r="B16" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>20</v>
       </c>
       <c r="D16" s="1" t="n">
         <v>0</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M16" s="1" t="n">
         <f aca="false">OR(SUM($D$14:$D$16)=2, SUM($D$17:$D$19)=2)</f>
@@ -2196,21 +1891,21 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="39.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="14" t="str">
+      <c r="A17" s="15" t="str">
         <f aca="false">IF($D$9, "Επιλέξτε το πολύ 2!", "Επιλέξτε το πολύ 1!")</f>
         <v>Επιλέξτε το πολύ 2!</v>
       </c>
-      <c r="B17" s="11" t="s">
-        <v>19</v>
+      <c r="B17" s="12" t="s">
+        <v>21</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D17" s="1" t="n">
         <v>0</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M17" s="1" t="n">
         <f aca="false">AND(SUM($D$14:$D$16)=1, SUM($D$17:$D$19)=1)</f>
@@ -2218,39 +1913,39 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="39.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="14" t="str">
+      <c r="A18" s="15" t="str">
         <f aca="false">IF($D$9, "Επιλέξτε το πολύ 2!", "Επιλέξτε το πολύ 1!")</f>
         <v>Επιλέξτε το πολύ 2!</v>
       </c>
-      <c r="B18" s="11" t="s">
-        <v>19</v>
+      <c r="B18" s="12" t="s">
+        <v>21</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D18" s="1" t="n">
         <v>0</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M18" s="1" t="n">
         <f aca="false">SUM($D$14:$D$19) = 0</f>
         <v>1</v>
       </c>
     </row>
-    <row r="19" s="16" customFormat="true" ht="39.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="14" t="str">
+    <row r="19" s="17" customFormat="true" ht="39.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="15" t="str">
         <f aca="false">IF($D$9, "Επιλέξτε το πολύ 2!", "Επιλέξτε το πολύ 1!")</f>
         <v>Επιλέξτε το πολύ 2!</v>
       </c>
-      <c r="B19" s="11" t="s">
-        <v>19</v>
+      <c r="B19" s="12" t="s">
+        <v>21</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" s="15" t="n">
+        <v>26</v>
+      </c>
+      <c r="D19" s="16" t="n">
         <v>0</v>
       </c>
       <c r="F19" s="1"/>
@@ -2259,568 +1954,568 @@
       <c r="I19" s="1"/>
     </row>
     <row r="20" customFormat="false" ht="39.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C20" s="7"/>
-      <c r="D20" s="8" t="str">
+      <c r="C20" s="8"/>
+      <c r="D20" s="9" t="str">
         <f aca="false">IF(AND(SUM($D$14:$D$19)&lt;3,IF(SUM($D$14:$D$19)=2,OR(AND($D$8,SUM($D$14:$D$16)),AND($D$9,SUM($D$17:$D$19))),1),IF(SUM($D$14:$D$19)=1,OR(AND($D$8,SUM($D$14:$D$16)),AND($D$9,SUM($D$17:$D$19))),1)),"Συνεχίστε!","Διαλέξατε λάθος ειδίκευση!")</f>
         <v>Συνεχίστε!</v>
       </c>
-      <c r="E20" s="8"/>
+      <c r="E20" s="9"/>
     </row>
     <row r="21" customFormat="false" ht="39.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C21" s="7"/>
+      <c r="C21" s="8"/>
       <c r="D21" s="1" t="str">
         <f aca="false">IF(E21 = "",  "", "Σχόλια:")</f>
         <v/>
       </c>
-      <c r="E21" s="17" t="str">
+      <c r="E21" s="18" t="str">
         <f aca="false">IF(SUM($D$14:$D$19) &gt;2, "Διαλέξτε το πολύ 2 ειδικεύσεις!","")</f>
         <v/>
       </c>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
     </row>
     <row r="22" customFormat="false" ht="39.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C22" s="7"/>
+      <c r="C22" s="8"/>
       <c r="D22" s="1" t="str">
         <f aca="false">IF(E22 = "",  "", "Σχόλια:")</f>
         <v/>
       </c>
-      <c r="E22" s="17" t="str">
+      <c r="E22" s="18" t="str">
         <f aca="false">IF(IF(SUM($D$14:$D$19) = 2, OR(AND($D$8, SUM($D$14:$D$16)), AND($D$9, SUM($D$17:$D$19))), 1),"","Αν θέλετε 2 ειδικεύσεις πρέπει να είναι στην κατεύθυνση που διαλέξατε!")</f>
         <v/>
       </c>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
     </row>
     <row r="23" customFormat="false" ht="39.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C23" s="7"/>
+      <c r="C23" s="8"/>
       <c r="D23" s="1" t="str">
         <f aca="false">IF(E23 = "",  "", "Σχόλια:")</f>
         <v/>
       </c>
-      <c r="E23" s="17" t="str">
+      <c r="E23" s="18" t="str">
         <f aca="false">IF(IF(SUM($D$14:$D$19) = 1, OR(AND($D$8, SUM($D$14:$D$16)), AND($D$9, SUM($D$17:$D$19))), 1),"","Αν θέλετε μία ειδίκευση πρέπει να είναι στην κατεύθυνση που διαλέξατε!")</f>
         <v/>
       </c>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
     </row>
     <row r="24" customFormat="false" ht="39.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" s="7"/>
+      <c r="A24" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="8"/>
     </row>
     <row r="25" customFormat="false" ht="72.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
+      <c r="A25" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
     </row>
     <row r="27" customFormat="false" ht="39.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C27" s="7"/>
+      <c r="A27" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="8"/>
     </row>
     <row r="28" customFormat="false" ht="39.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
+      <c r="A28" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
     </row>
     <row r="29" customFormat="false" ht="39.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C29" s="5" t="s">
+      <c r="A29" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D29" s="11" t="s">
+      <c r="B29" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E29" s="18" t="s">
+      <c r="C29" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F29" s="5"/>
+      <c r="D29" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E29" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="F29" s="6"/>
       <c r="L29" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="39.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B30" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C30" s="20" t="s">
+      <c r="A30" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="D30" s="11" t="n">
+      <c r="B30" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="D30" s="12" t="n">
         <v>6</v>
       </c>
       <c r="E30" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="F30" s="5"/>
+        <v>0</v>
+      </c>
+      <c r="F30" s="6"/>
       <c r="L30" s="1" t="n">
         <f aca="false">IF(E30&gt;4, 1, 0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="39.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B31" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C31" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="D31" s="11" t="n">
+      <c r="A31" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D31" s="12" t="n">
         <v>7</v>
       </c>
       <c r="E31" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="F31" s="5"/>
+        <v>0</v>
+      </c>
+      <c r="F31" s="6"/>
       <c r="L31" s="1" t="n">
         <f aca="false">IF(E31&gt;4, 1, 0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="39.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B32" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C32" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="D32" s="11" t="n">
+      <c r="A32" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="D32" s="12" t="n">
         <v>7</v>
       </c>
       <c r="E32" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="F32" s="5"/>
+        <v>0</v>
+      </c>
+      <c r="F32" s="6"/>
       <c r="L32" s="1" t="n">
         <f aca="false">IF(E32&gt;4, 1, 0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="39.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B33" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C33" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="D33" s="11" t="n">
+      <c r="A33" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="D33" s="12" t="n">
         <v>6</v>
       </c>
       <c r="E33" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="F33" s="5"/>
+        <v>0</v>
+      </c>
+      <c r="F33" s="6"/>
       <c r="L33" s="1" t="n">
         <f aca="false">IF(E33&gt;4, 1, 0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="39.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C34" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="D34" s="11" t="n">
+      <c r="A34" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="D34" s="12" t="n">
         <v>8</v>
       </c>
       <c r="E34" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="F34" s="5"/>
+        <v>0</v>
+      </c>
+      <c r="F34" s="6"/>
       <c r="L34" s="1" t="n">
         <f aca="false">IF(E34&gt;4, 1, 0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="39.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B35" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C35" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="D35" s="11" t="n">
+      <c r="A35" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C35" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="D35" s="12" t="n">
         <v>8</v>
       </c>
       <c r="E35" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="F35" s="5"/>
+        <v>0</v>
+      </c>
+      <c r="F35" s="6"/>
       <c r="L35" s="1" t="n">
         <f aca="false">IF(E35&gt;4, 1, 0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="39.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B36" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C36" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="D36" s="11" t="n">
+      <c r="A36" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C36" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="D36" s="12" t="n">
         <v>7</v>
       </c>
       <c r="E36" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="F36" s="5"/>
+        <v>0</v>
+      </c>
+      <c r="F36" s="6"/>
       <c r="L36" s="1" t="n">
         <f aca="false">IF(E36&gt;4, 1, 0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="39.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B37" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="C37" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="D37" s="11" t="n">
+      <c r="A37" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C37" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="D37" s="12" t="n">
         <v>7</v>
       </c>
       <c r="E37" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="F37" s="5"/>
+        <v>0</v>
+      </c>
+      <c r="F37" s="6"/>
       <c r="L37" s="1" t="n">
         <f aca="false">IF(E37&gt;4, 1, 0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="39.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B38" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C38" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="D38" s="11" t="n">
+      <c r="A38" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C38" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="D38" s="12" t="n">
         <v>8</v>
       </c>
       <c r="E38" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="F38" s="5"/>
+        <v>0</v>
+      </c>
+      <c r="F38" s="6"/>
       <c r="L38" s="1" t="n">
         <f aca="false">IF(E38&gt;4, 1, 0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="39.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B39" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="C39" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="D39" s="11" t="n">
+      <c r="A39" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C39" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D39" s="12" t="n">
         <v>6</v>
       </c>
       <c r="E39" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="F39" s="5"/>
+        <v>0</v>
+      </c>
+      <c r="F39" s="6"/>
       <c r="L39" s="1" t="n">
         <f aca="false">IF(E39&gt;4, 1, 0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="39.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B40" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="C40" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="D40" s="11" t="n">
+      <c r="A40" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C40" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D40" s="12" t="n">
         <v>8</v>
       </c>
       <c r="E40" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="F40" s="5"/>
+        <v>0</v>
+      </c>
+      <c r="F40" s="6"/>
       <c r="L40" s="1" t="n">
         <f aca="false">IF(E40&gt;4, 1, 0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="39.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B41" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C41" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="D41" s="11" t="n">
+      <c r="A41" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C41" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D41" s="12" t="n">
         <v>6</v>
       </c>
       <c r="E41" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="F41" s="5"/>
+        <v>0</v>
+      </c>
+      <c r="F41" s="6"/>
       <c r="L41" s="1" t="n">
         <f aca="false">IF(E41&gt;4, 1, 0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="39.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B42" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="C42" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="D42" s="11" t="n">
+      <c r="A42" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C42" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="D42" s="12" t="n">
         <v>8</v>
       </c>
       <c r="E42" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="F42" s="5"/>
+        <v>0</v>
+      </c>
+      <c r="F42" s="6"/>
       <c r="L42" s="1" t="n">
         <f aca="false">IF(E42&gt;4, 1, 0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="39.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B43" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="C43" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="D43" s="11" t="n">
+      <c r="A43" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C43" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="D43" s="12" t="n">
         <v>7</v>
       </c>
       <c r="E43" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="F43" s="5"/>
+        <v>0</v>
+      </c>
+      <c r="F43" s="6"/>
       <c r="L43" s="1" t="n">
         <f aca="false">IF(E43&gt;4, 1, 0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="39.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B44" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="C44" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="D44" s="11" t="n">
+      <c r="A44" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C44" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="D44" s="12" t="n">
         <v>7</v>
       </c>
       <c r="E44" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="F44" s="5"/>
+        <v>0</v>
+      </c>
+      <c r="F44" s="6"/>
       <c r="L44" s="1" t="n">
         <f aca="false">IF(E44&gt;4, 1, 0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="39.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B45" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="C45" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="D45" s="11" t="n">
+      <c r="A45" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C45" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="D45" s="12" t="n">
         <v>6</v>
       </c>
       <c r="E45" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="F45" s="5"/>
+        <v>0</v>
+      </c>
+      <c r="F45" s="6"/>
       <c r="L45" s="1" t="n">
         <f aca="false">IF(E45&gt;4, 1, 0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="39.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B46" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="C46" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="D46" s="11" t="n">
+      <c r="A46" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C46" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="D46" s="12" t="n">
         <v>8</v>
       </c>
       <c r="E46" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="F46" s="5"/>
+        <v>0</v>
+      </c>
+      <c r="F46" s="6"/>
       <c r="L46" s="1" t="n">
         <f aca="false">IF(E46&gt;4, 1, 0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="39.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B47" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="C47" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="D47" s="11" t="n">
+      <c r="A47" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C47" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="D47" s="12" t="n">
         <v>8</v>
       </c>
       <c r="E47" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="F47" s="5"/>
+        <v>0</v>
+      </c>
+      <c r="F47" s="6"/>
       <c r="L47" s="1" t="n">
         <f aca="false">IF(E47&gt;4, 1, 0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="39.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B48" s="11"/>
-      <c r="C48" s="20"/>
-      <c r="E48" s="17" t="str">
+      <c r="B48" s="12"/>
+      <c r="C48" s="21"/>
+      <c r="E48" s="18" t="str">
         <f aca="false">IF(SUM(L30:L47) = 18, "Συνεχίστε!", "Δεν πήρατε κάποιο υποχρεωτικό!")</f>
-        <v>Συνεχίστε!</v>
-      </c>
-      <c r="F48" s="17"/>
+        <v>Δεν πήρατε κάποιο υποχρεωτικό!</v>
+      </c>
+      <c r="F48" s="18"/>
     </row>
     <row r="49" customFormat="false" ht="39.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B49" s="11"/>
-      <c r="C49" s="20"/>
-      <c r="F49" s="5"/>
+      <c r="B49" s="12"/>
+      <c r="C49" s="21"/>
+      <c r="F49" s="6"/>
     </row>
     <row r="50" customFormat="false" ht="39.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="B50" s="21"/>
-      <c r="C50" s="20"/>
-      <c r="D50" s="22"/>
-      <c r="E50" s="15"/>
+      <c r="A50" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="B50" s="22"/>
+      <c r="C50" s="21"/>
+      <c r="D50" s="23"/>
+      <c r="E50" s="16"/>
     </row>
     <row r="51" customFormat="false" ht="39.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B51" s="4"/>
-      <c r="C51" s="4"/>
-      <c r="D51" s="4"/>
-      <c r="E51" s="4"/>
+      <c r="A51" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B51" s="5"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
     </row>
     <row r="52" customFormat="false" ht="39.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B52" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C52" s="20" t="s">
+      <c r="A52" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D52" s="11" t="s">
+      <c r="B52" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E52" s="18" t="s">
+      <c r="C52" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="F52" s="5"/>
+      <c r="D52" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E52" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="F52" s="6"/>
       <c r="L52" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="39.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="B53" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="C53" s="20" t="s">
+      <c r="A53" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="D53" s="11" t="n">
+      <c r="B53" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C53" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="D53" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="E53" s="15" t="n">
+      <c r="E53" s="16" t="n">
         <v>0</v>
       </c>
       <c r="L53" s="1" t="n">
@@ -2829,19 +2524,19 @@
       </c>
     </row>
     <row r="54" customFormat="false" ht="39.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="B54" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="C54" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="D54" s="11" t="n">
+      <c r="A54" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="B54" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C54" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="D54" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="E54" s="15" t="n">
+      <c r="E54" s="16" t="n">
         <v>0</v>
       </c>
       <c r="L54" s="1" t="n">
@@ -2850,19 +2545,19 @@
       </c>
     </row>
     <row r="55" customFormat="false" ht="39.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="B55" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="C55" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="D55" s="11" t="n">
+      <c r="A55" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="B55" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="D55" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="E55" s="15" t="n">
+      <c r="E55" s="16" t="n">
         <v>0</v>
       </c>
       <c r="L55" s="1" t="n">
@@ -2871,81 +2566,81 @@
       </c>
     </row>
     <row r="56" customFormat="false" ht="39.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B56" s="11"/>
-      <c r="C56" s="20"/>
-      <c r="D56" s="11"/>
-      <c r="E56" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="F56" s="23"/>
+      <c r="B56" s="12"/>
+      <c r="C56" s="21"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="F56" s="24"/>
     </row>
     <row r="57" customFormat="false" ht="39.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="B57" s="21"/>
-      <c r="C57" s="21"/>
-      <c r="D57" s="11"/>
-      <c r="E57" s="15"/>
+      <c r="A57" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="B57" s="22"/>
+      <c r="C57" s="22"/>
+      <c r="D57" s="12"/>
+      <c r="E57" s="16"/>
     </row>
     <row r="58" customFormat="false" ht="37.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="B58" s="21"/>
-      <c r="C58" s="21"/>
-      <c r="D58" s="21"/>
-      <c r="E58" s="21"/>
-      <c r="F58" s="21"/>
+      <c r="A58" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="B58" s="22"/>
+      <c r="C58" s="22"/>
+      <c r="D58" s="22"/>
+      <c r="E58" s="22"/>
+      <c r="F58" s="22"/>
       <c r="L58" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="39.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B59" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C59" s="20" t="s">
+      <c r="A59" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D59" s="11" t="s">
+      <c r="B59" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E59" s="18" t="s">
+      <c r="C59" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="F59" s="5"/>
+      <c r="D59" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E59" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="F59" s="6"/>
       <c r="L59" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="M59" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="N59" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="O59" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="39.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="24" t="str">
+      <c r="A60" s="25" t="str">
         <f aca="false">IF(OR($D$8, $D$14), "Υποχρεωτικό", "Προαιρετικό")</f>
         <v>Προαιρετικό</v>
       </c>
-      <c r="B60" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="C60" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="D60" s="11" t="n">
+      <c r="B60" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C60" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="D60" s="12" t="n">
         <v>6</v>
       </c>
-      <c r="E60" s="15" t="n">
+      <c r="E60" s="16" t="n">
         <v>0</v>
       </c>
       <c r="L60" s="1" t="n">
@@ -2966,24 +2661,24 @@
       </c>
     </row>
     <row r="61" customFormat="false" ht="39.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="24" t="str">
+      <c r="A61" s="25" t="str">
         <f aca="false">IF(OR($D$8, $D$15, $D$16), "Υποχρεωτικό", "Προαιρετικό")</f>
         <v>Προαιρετικό</v>
       </c>
-      <c r="B61" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="C61" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="D61" s="11" t="n">
+      <c r="B61" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="C61" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="D61" s="12" t="n">
         <v>6</v>
       </c>
-      <c r="E61" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H61" s="20"/>
-      <c r="I61" s="20"/>
+      <c r="E61" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H61" s="21"/>
+      <c r="I61" s="21"/>
       <c r="L61" s="1" t="n">
         <f aca="false">IF(E61&gt;4, 1, 0)</f>
         <v>0</v>
@@ -3006,23 +2701,23 @@
         <f aca="false">IF($D$17, "Υποχρεωτικό", IF(OR($D$8,$M$16), IF($D$16, "ΒΠΜ 3ης Ειδίκευσης, χρειάζονται 4!", "Προαιρετικό"), IF($M$18, "ΕΥΜ, χρειάζονται 4!", "ΕΥΜ, χρειάζονται 2!")))</f>
         <v>ΕΥΜ, χρειάζονται 4!</v>
       </c>
-      <c r="B62" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="C62" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="D62" s="11" t="n">
+      <c r="B62" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="C62" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="D62" s="12" t="n">
         <v>6</v>
       </c>
-      <c r="E62" s="15" t="n">
-        <v>7</v>
-      </c>
-      <c r="H62" s="20"/>
-      <c r="I62" s="20"/>
+      <c r="E62" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H62" s="21"/>
+      <c r="I62" s="21"/>
       <c r="L62" s="1" t="n">
         <f aca="false">IF(E62&gt;4, 1, 0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M62" s="1" t="n">
         <f aca="false">IF($A62="Υποχρεωτικό",$L62,1)</f>
@@ -3034,7 +2729,7 @@
       </c>
       <c r="O62" s="1" t="n">
         <f aca="false">IF($N62, $L62/$N62, 0)</f>
-        <v>0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="39.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3042,22 +2737,22 @@
         <f aca="false">IF($D$18, "Υποχρεωτικό", IF(OR($D$8,$M$16), "Προαιρετικό", IF($M$18, "ΕΥΜ, χρειάζονται 4!", "ΕΥΜ, χρειάζονται 2!")))</f>
         <v>ΕΥΜ, χρειάζονται 4!</v>
       </c>
-      <c r="B63" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="C63" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="D63" s="11" t="n">
+      <c r="B63" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C63" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="D63" s="12" t="n">
         <v>6</v>
       </c>
-      <c r="E63" s="15" t="n">
-        <v>8</v>
-      </c>
-      <c r="H63" s="25"/>
+      <c r="E63" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H63" s="26"/>
       <c r="L63" s="1" t="n">
         <f aca="false">IF(E63&gt;4, 1, 0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M63" s="1" t="n">
         <f aca="false">IF($A63="Υποχρεωτικό",$L63,1)</f>
@@ -3069,7 +2764,7 @@
       </c>
       <c r="O63" s="1" t="n">
         <f aca="false">IF($N63, $L63/$N63, 0)</f>
-        <v>0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="39.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3077,19 +2772,19 @@
         <f aca="false">IF($D$19, "Υποχρεωτικό", IF(OR($D$8,$M$16), "Προαιρετικό", IF($M$18, "ΕΥΜ, χρειάζονται 4!", "ΕΥΜ, χρειάζονται 2!")))</f>
         <v>ΕΥΜ, χρειάζονται 4!</v>
       </c>
-      <c r="B64" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="C64" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="D64" s="11" t="n">
+      <c r="B64" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="C64" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="D64" s="12" t="n">
         <v>6</v>
       </c>
-      <c r="E64" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H64" s="25"/>
+      <c r="E64" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H64" s="26"/>
       <c r="L64" s="1" t="n">
         <f aca="false">IF(E64&gt;4, 1, 0)</f>
         <v>0</v>
@@ -3112,19 +2807,19 @@
         <f aca="false">IF($D$14, "Υποχρεωτικό", IF($D$8, IF($D$16, "Προαιρετικό", "ΕΥΜ, χρειάζεται 1!"), "Προαιρετικό"))</f>
         <v>Προαιρετικό</v>
       </c>
-      <c r="B65" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="C65" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="D65" s="11" t="n">
+      <c r="B65" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="C65" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="D65" s="12" t="n">
         <v>6</v>
       </c>
-      <c r="E65" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H65" s="25"/>
+      <c r="E65" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H65" s="26"/>
       <c r="L65" s="1" t="n">
         <f aca="false">IF(E65&gt;4, 1, 0)</f>
         <v>0</v>
@@ -3143,23 +2838,23 @@
       </c>
     </row>
     <row r="66" customFormat="false" ht="39.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="24" t="str">
+      <c r="A66" s="25" t="str">
         <f aca="false">IF(OR($D$8, $D$15), "Υποχρεωτικό", "Προαιρετικό")</f>
         <v>Προαιρετικό</v>
       </c>
-      <c r="B66" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="C66" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="D66" s="11" t="n">
+      <c r="B66" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="C66" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="D66" s="12" t="n">
         <v>6</v>
       </c>
-      <c r="E66" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H66" s="25"/>
+      <c r="E66" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" s="26"/>
       <c r="L66" s="1" t="n">
         <f aca="false">IF(E66&gt;4, 1, 0)</f>
         <v>0</v>
@@ -3182,19 +2877,19 @@
         <f aca="false">IF($D$16, "Υποχρεωτικό", IF($D$8, IF($D$14, "Προαιρετικό", "ΕΥΜ, χρειάζεται 1!"), IF($D$17, "ΒΠΜ 4ης Ειδίκευσης, χρειάζονται 4!", "Προαιρετικό")))</f>
         <v>Προαιρετικό</v>
       </c>
-      <c r="B67" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="C67" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="D67" s="11" t="n">
+      <c r="B67" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C67" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="D67" s="12" t="n">
         <v>6</v>
       </c>
-      <c r="E67" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H67" s="25"/>
+      <c r="E67" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H67" s="26"/>
       <c r="L67" s="1" t="n">
         <f aca="false">IF(E67&gt;4, 1, 0)</f>
         <v>0</v>
@@ -3217,21 +2912,21 @@
         <f aca="false">IF($D$17, "Υποχρεωτικό", IF(OR($D$8,$M$16), "Προαιρετικό", IF($M$18, "ΕΥΜ, χρειάζονται 4!", "ΕΥΜ, χρειάζονται 2!")))</f>
         <v>ΕΥΜ, χρειάζονται 4!</v>
       </c>
-      <c r="B68" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="C68" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="D68" s="11" t="n">
+      <c r="B68" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="C68" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="D68" s="12" t="n">
         <v>6</v>
       </c>
-      <c r="E68" s="15" t="n">
-        <v>9</v>
+      <c r="E68" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="L68" s="1" t="n">
         <f aca="false">IF(E68&gt;4, 1, 0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M68" s="1" t="n">
         <f aca="false">IF($A68="Υποχρεωτικό",$L68,1)</f>
@@ -3243,7 +2938,7 @@
       </c>
       <c r="O68" s="1" t="n">
         <f aca="false">IF($N68, $L68/$N68, 0)</f>
-        <v>0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="39.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3251,21 +2946,21 @@
         <f aca="false">IF($D$18, "Υποχρεωτικό", IF(OR($D$8,$M$16), "Προαιρετικό", IF($M$18, "ΕΥΜ, χρειάζονται 4!", "ΕΥΜ, χρειάζονται 2!")))</f>
         <v>ΕΥΜ, χρειάζονται 4!</v>
       </c>
-      <c r="B69" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="C69" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="D69" s="11" t="n">
+      <c r="B69" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C69" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="D69" s="12" t="n">
         <v>6</v>
       </c>
-      <c r="E69" s="15" t="n">
-        <v>8</v>
+      <c r="E69" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="L69" s="1" t="n">
         <f aca="false">IF(E69&gt;4, 1, 0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M69" s="1" t="n">
         <f aca="false">IF($A69="Υποχρεωτικό",$L69,1)</f>
@@ -3277,7 +2972,7 @@
       </c>
       <c r="O69" s="1" t="n">
         <f aca="false">IF($N69, $L69/$N69, 0)</f>
-        <v>0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="39.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3285,16 +2980,16 @@
         <f aca="false">IF($D$19, "Υποχρεωτικό", IF(OR($D$8,$M$16), "Προαιρετικό", IF($M$18, "ΕΥΜ, χρειάζονται 4!", "ΕΥΜ, χρειάζονται 2!")))</f>
         <v>ΕΥΜ, χρειάζονται 4!</v>
       </c>
-      <c r="B70" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="C70" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="D70" s="11" t="n">
+      <c r="B70" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="C70" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="D70" s="12" t="n">
         <v>6</v>
       </c>
-      <c r="E70" s="15" t="n">
+      <c r="E70" s="16" t="n">
         <v>0</v>
       </c>
       <c r="L70" s="1" t="n">
@@ -3315,14 +3010,14 @@
       </c>
     </row>
     <row r="71" customFormat="false" ht="39.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D71" s="11"/>
-      <c r="E71" s="23" t="str">
+      <c r="D71" s="12"/>
+      <c r="E71" s="24" t="str">
         <f aca="false">IF(AND($M$71&gt;=11, $O$71&gt;= 1), "Συνεχίστε!", "Δεν δηλώσατε σωστά μαθήματα!")</f>
-        <v>Συνεχίστε!</v>
-      </c>
-      <c r="F71" s="23"/>
+        <v>Δεν δηλώσατε σωστά μαθήματα!</v>
+      </c>
+      <c r="F71" s="24"/>
       <c r="L71" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M71" s="1" t="n">
         <f aca="false">SUM(M60:M70)</f>
@@ -3330,63 +3025,63 @@
       </c>
       <c r="O71" s="1" t="n">
         <f aca="false">IF(SUM(N60:N70), SUM(O60:O70), 1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="39.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D72" s="11"/>
+      <c r="D72" s="12"/>
       <c r="E72" s="1" t="str">
         <f aca="false">IF(F72 = "", "", "Σχόλια:")</f>
-        <v/>
-      </c>
-      <c r="F72" s="17" t="str">
+        <v>Σχόλια:</v>
+      </c>
+      <c r="F72" s="18" t="str">
         <f aca="false">IF($O$71 &gt;= 1, IF($M$71&lt;11, "Δεν δηλώσατε τα υποχρεωτικά μαθήματα!", ""), "Δεν δηλώσατε σωστά τα μαθήματα επιλογής!")</f>
-        <v/>
-      </c>
-      <c r="G72" s="17"/>
+        <v>Δεν δηλώσατε σωστά τα μαθήματα επιλογής!</v>
+      </c>
+      <c r="G72" s="18"/>
     </row>
     <row r="73" customFormat="false" ht="39.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D73" s="11"/>
+      <c r="D73" s="12"/>
     </row>
     <row r="74" customFormat="false" ht="39.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D74" s="11"/>
-      <c r="F74" s="5"/>
+      <c r="D74" s="12"/>
+      <c r="F74" s="6"/>
     </row>
     <row r="75" customFormat="false" ht="39.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A75" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="D75" s="11"/>
-      <c r="E75" s="15"/>
+      <c r="A75" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D75" s="12"/>
+      <c r="E75" s="16"/>
     </row>
     <row r="76" customFormat="false" ht="39.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A76" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="B76" s="4"/>
-      <c r="C76" s="4"/>
-      <c r="D76" s="4"/>
-      <c r="E76" s="15"/>
+      <c r="A76" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B76" s="5"/>
+      <c r="C76" s="5"/>
+      <c r="D76" s="5"/>
+      <c r="E76" s="16"/>
     </row>
     <row r="77" customFormat="false" ht="39.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A77" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B77" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C77" s="5" t="s">
+      <c r="A77" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D77" s="11" t="s">
+      <c r="B77" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E77" s="18" t="s">
+      <c r="C77" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F77" s="5"/>
+      <c r="D77" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E77" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="F77" s="6"/>
       <c r="L77" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="39.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3394,16 +3089,16 @@
         <f aca="false">IF($D$8, "Επιλογής, χρειάζεται 1!", "Προαιρετικό")</f>
         <v>Προαιρετικό</v>
       </c>
-      <c r="B78" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="C78" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="D78" s="11" t="n">
+      <c r="B78" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="D78" s="12" t="n">
         <v>8</v>
       </c>
-      <c r="E78" s="15" t="n">
+      <c r="E78" s="16" t="n">
         <v>0</v>
       </c>
       <c r="L78" s="1" t="n">
@@ -3416,16 +3111,16 @@
         <f aca="false">IF($D$8, "Επιλογής, χρειάζεται 1!", "Προαιρετικό")</f>
         <v>Προαιρετικό</v>
       </c>
-      <c r="B79" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="C79" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="D79" s="11" t="n">
+      <c r="B79" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D79" s="12" t="n">
         <v>8</v>
       </c>
-      <c r="E79" s="15" t="n">
+      <c r="E79" s="16" t="n">
         <v>0</v>
       </c>
       <c r="L79" s="1" t="n">
@@ -3438,21 +3133,21 @@
         <f aca="false">IF($D$9, "Επιλογής, χρειάζεται 1!", "Προαιρετικό")</f>
         <v>Επιλογής, χρειάζεται 1!</v>
       </c>
-      <c r="B80" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="C80" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="D80" s="11" t="n">
+      <c r="B80" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D80" s="12" t="n">
         <v>8</v>
       </c>
-      <c r="E80" s="15" t="n">
-        <v>8</v>
+      <c r="E80" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="L80" s="1" t="n">
         <f aca="false">IF(E80&gt;4, 1, 0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3460,16 +3155,16 @@
         <f aca="false">IF($D$9, "Επιλογής, χρειάζεται 1!", "Προαιρετικό")</f>
         <v>Επιλογής, χρειάζεται 1!</v>
       </c>
-      <c r="B81" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="C81" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="D81" s="11" t="n">
+      <c r="B81" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D81" s="12" t="n">
         <v>8</v>
       </c>
-      <c r="E81" s="15" t="n">
+      <c r="E81" s="16" t="n">
         <v>0</v>
       </c>
       <c r="L81" s="1" t="n">
@@ -3478,374 +3173,374 @@
       </c>
     </row>
     <row r="82" customFormat="false" ht="39.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B82" s="5"/>
-      <c r="C82" s="5"/>
-      <c r="D82" s="11"/>
-      <c r="E82" s="26" t="str">
+      <c r="B82" s="6"/>
+      <c r="C82" s="6"/>
+      <c r="D82" s="12"/>
+      <c r="E82" s="27" t="str">
         <f aca="false">IF($D$8, IF(L78+L79 &gt;= 1, "Συνεχίστε!", "Δεν πήρατε το αναγκαίο Project!"), IF(L80+L81 &gt;= 1, "Συνεχίστε!", "Δεν πήρατε το αναγκαίο Project!"))</f>
-        <v>Συνεχίστε!</v>
-      </c>
-      <c r="F82" s="26"/>
+        <v>Δεν πήρατε το αναγκαίο Project!</v>
+      </c>
+      <c r="F82" s="27"/>
     </row>
     <row r="83" customFormat="false" ht="39.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A83" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="B83" s="5"/>
-      <c r="C83" s="5"/>
-      <c r="D83" s="11"/>
-      <c r="E83" s="15"/>
+      <c r="A83" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B83" s="6"/>
+      <c r="C83" s="6"/>
+      <c r="D83" s="12"/>
+      <c r="E83" s="16"/>
     </row>
     <row r="84" customFormat="false" ht="39.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A84" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="B84" s="4"/>
-      <c r="C84" s="4"/>
-      <c r="D84" s="11"/>
-      <c r="E84" s="15"/>
+      <c r="A84" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B84" s="5"/>
+      <c r="C84" s="5"/>
+      <c r="D84" s="12"/>
+      <c r="E84" s="16"/>
     </row>
     <row r="85" customFormat="false" ht="39.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A85" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B85" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C85" s="5" t="s">
+      <c r="A85" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D85" s="11" t="s">
+      <c r="B85" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E85" s="18" t="s">
+      <c r="C85" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F85" s="5"/>
+      <c r="D85" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E85" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="F85" s="6"/>
       <c r="L85" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="39.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A86" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B86" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="C86" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="D86" s="11" t="n">
+      <c r="A86" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B86" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D86" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="E86" s="15" t="n">
-        <v>9</v>
+      <c r="E86" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="L86" s="1" t="n">
         <f aca="false">IF(E86&gt;4, 1, 0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="39.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A87" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B87" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="C87" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="D87" s="11" t="n">
+      <c r="A87" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B87" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D87" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="E87" s="15" t="n">
-        <v>9</v>
+      <c r="E87" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="L87" s="1" t="n">
         <f aca="false">IF(E87&gt;4, 1, 0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A88" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B88" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="C88" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="D88" s="11" t="n">
+      <c r="A88" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B88" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D88" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="E88" s="15" t="n">
-        <v>10</v>
+      <c r="E88" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="L88" s="1" t="n">
         <f aca="false">IF(E88&gt;4, 1, 0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="39.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B89" s="5"/>
-      <c r="C89" s="5"/>
-      <c r="D89" s="11"/>
-      <c r="E89" s="26" t="str">
+      <c r="B89" s="6"/>
+      <c r="C89" s="6"/>
+      <c r="D89" s="12"/>
+      <c r="E89" s="27" t="str">
         <f aca="false">IF(SUM(L86:L88)=3,"Συνεχίστε!","Δεν πήρατε κάποιο υποχρεωτικό!")</f>
-        <v>Συνεχίστε!</v>
-      </c>
-      <c r="F89" s="26"/>
+        <v>Δεν πήρατε κάποιο υποχρεωτικό!</v>
+      </c>
+      <c r="F89" s="27"/>
     </row>
     <row r="90" customFormat="false" ht="39.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A90" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="B90" s="4"/>
-      <c r="C90" s="5"/>
-      <c r="D90" s="11"/>
-      <c r="E90" s="15"/>
+      <c r="A90" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B90" s="5"/>
+      <c r="C90" s="6"/>
+      <c r="D90" s="12"/>
+      <c r="E90" s="16"/>
     </row>
     <row r="91" customFormat="false" ht="39.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A91" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="B91" s="4"/>
-      <c r="C91" s="4"/>
-      <c r="D91" s="4"/>
-      <c r="E91" s="4"/>
-      <c r="F91" s="4"/>
-      <c r="G91" s="4"/>
+      <c r="A91" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B91" s="5"/>
+      <c r="C91" s="5"/>
+      <c r="D91" s="5"/>
+      <c r="E91" s="5"/>
+      <c r="F91" s="5"/>
+      <c r="G91" s="5"/>
     </row>
     <row r="92" customFormat="false" ht="39.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A92" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B92" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C92" s="5" t="s">
+      <c r="A92" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D92" s="11" t="s">
+      <c r="B92" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E92" s="18" t="s">
+      <c r="C92" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F92" s="5"/>
+      <c r="D92" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E92" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="F92" s="6"/>
       <c r="L92" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="39.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A93" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B93" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="C93" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D93" s="11" t="n">
+      <c r="A93" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B93" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="D93" s="12" t="n">
         <v>8</v>
       </c>
-      <c r="E93" s="15" t="n">
-        <v>10</v>
+      <c r="E93" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="L93" s="1" t="n">
         <f aca="false">IF(E93&gt;4, 1, 0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="39.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A94" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B94" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="C94" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="D94" s="11" t="n">
+      <c r="A94" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B94" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="D94" s="12" t="n">
         <v>8</v>
       </c>
-      <c r="E94" s="15" t="n">
-        <v>10</v>
+      <c r="E94" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="L94" s="1" t="n">
         <f aca="false">IF(E94&gt;4, 1, 0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="39.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B95" s="5"/>
-      <c r="C95" s="5"/>
-      <c r="D95" s="11"/>
-      <c r="E95" s="26" t="str">
+      <c r="B95" s="6"/>
+      <c r="C95" s="6"/>
+      <c r="D95" s="12"/>
+      <c r="E95" s="27" t="str">
         <f aca="false">IF(SUM(L93:L94)=2,"Συνεχίστε!","Δεν πήρατε κάποιο υποχρεωτικό!")</f>
-        <v>Συνεχίστε!</v>
-      </c>
-      <c r="F95" s="26"/>
+        <v>Δεν πήρατε κάποιο υποχρεωτικό!</v>
+      </c>
+      <c r="F95" s="27"/>
     </row>
     <row r="96" customFormat="false" ht="35.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A96" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="B96" s="5"/>
-      <c r="C96" s="5"/>
-      <c r="D96" s="11"/>
-      <c r="E96" s="15"/>
+      <c r="A96" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="B96" s="6"/>
+      <c r="C96" s="6"/>
+      <c r="D96" s="12"/>
+      <c r="E96" s="16"/>
     </row>
     <row r="97" customFormat="false" ht="45.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A97" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="B97" s="4"/>
-      <c r="C97" s="4"/>
-      <c r="D97" s="4"/>
-      <c r="E97" s="4"/>
-      <c r="F97" s="4"/>
+      <c r="A97" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B97" s="5"/>
+      <c r="C97" s="5"/>
+      <c r="D97" s="5"/>
+      <c r="E97" s="5"/>
+      <c r="F97" s="5"/>
     </row>
     <row r="98" customFormat="false" ht="39.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A98" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B98" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C98" s="5" t="s">
+      <c r="A98" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D98" s="11" t="s">
+      <c r="B98" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E98" s="18" t="s">
+      <c r="C98" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F98" s="5"/>
+      <c r="D98" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E98" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="F98" s="6"/>
       <c r="L98" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="39.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B99" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="C99" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="D99" s="11" t="n">
+        <v>75</v>
+      </c>
+      <c r="B99" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D99" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="E99" s="15" t="n">
-        <v>10</v>
+      <c r="E99" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="L99" s="1" t="n">
         <f aca="false">IF(E99&gt;4, 1, 0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="39.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B100" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="C100" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B100" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="D100" s="11" t="n">
+      <c r="C100" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="D100" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="E100" s="15" t="n">
-        <v>8</v>
+      <c r="E100" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="L100" s="1" t="n">
         <f aca="false">IF(E100&gt;4, 1, 0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="39.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B101" s="5"/>
-      <c r="C101" s="5"/>
-      <c r="D101" s="11"/>
-      <c r="E101" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="F101" s="23"/>
+      <c r="B101" s="6"/>
+      <c r="C101" s="6"/>
+      <c r="D101" s="12"/>
+      <c r="E101" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="F101" s="24"/>
     </row>
     <row r="102" customFormat="false" ht="38.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A102" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="B102" s="5"/>
-      <c r="C102" s="5"/>
-      <c r="D102" s="11"/>
-      <c r="E102" s="15"/>
+      <c r="A102" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B102" s="6"/>
+      <c r="C102" s="6"/>
+      <c r="D102" s="12"/>
+      <c r="E102" s="16"/>
     </row>
     <row r="103" customFormat="false" ht="44.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A103" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="B103" s="4"/>
-      <c r="C103" s="4"/>
-      <c r="D103" s="4"/>
-      <c r="E103" s="4"/>
+      <c r="A103" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B103" s="5"/>
+      <c r="C103" s="5"/>
+      <c r="D103" s="5"/>
+      <c r="E103" s="5"/>
       <c r="L103" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="39.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A104" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B104" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C104" s="5" t="s">
+      <c r="A104" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D104" s="11" t="s">
+      <c r="B104" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E104" s="18" t="s">
+      <c r="C104" s="6" t="s">
         <v>33</v>
       </c>
+      <c r="D104" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E104" s="19" t="s">
+        <v>35</v>
+      </c>
       <c r="L104" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="N104" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="O104" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="P104" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q104" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="R104" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="S104" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="T104" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="U104" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="39.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3853,21 +3548,21 @@
         <f aca="false">IF($M$18, IF($D$8, "ΒΠΜ, χρειάζονται 4!", "Προαιρετικό"), IF(AND($D$14,$D$15), "ΒΠΜ 1ης ή ΒΠΜ 2ης Ειδίκευσης!", IF($D$14, "ΒΠΜ 1ης ειδίκευσης, χρειάζονται 4!", IF($D$15, "ΒΠΜ 2ης ειδίκευσης, χρειάζονται 4!", "Προαιρετικό"))))</f>
         <v>Προαιρετικό</v>
       </c>
-      <c r="B105" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="C105" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="D105" s="11" t="n">
+      <c r="B105" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C105" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="D105" s="12" t="n">
         <v>6</v>
       </c>
-      <c r="E105" s="15" t="n">
-        <v>5</v>
+      <c r="E105" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="L105" s="1" t="n">
         <f aca="false">IF(E105&gt;4, 1, 0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N105" s="1" t="n">
         <f aca="false">IF(ISNUMBER(SEARCH("ΒΠΜ 1ης", $A105)), $L105, 0)</f>
@@ -3903,21 +3598,21 @@
       </c>
     </row>
     <row r="106" customFormat="false" ht="39.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A106" s="27" t="str">
+      <c r="A106" s="28" t="str">
         <f aca="false">IF($M$18, IF($D$8, "ΒΠΜ, χρειάζονται 4!", "Προαιρετικό"), IF(AND($D$14,$D$15), "ΒΠΜ 1ης ή ΒΠΜ 2ης Ειδίκευσης!", IF($D$14, "ΒΠΜ 1ης ειδίκευσης, χρειάζονται 4!", IF($D$15, "ΒΠΜ 2ης ειδίκευσης, χρειάζονται 4!", "Προαιρετικό"))))</f>
         <v>Προαιρετικό</v>
       </c>
-      <c r="B106" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="C106" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="D106" s="11" t="n">
+      <c r="B106" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="C106" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="D106" s="12" t="n">
         <v>6</v>
       </c>
-      <c r="E106" s="15" t="n">
-        <v>5</v>
+      <c r="E106" s="16" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="39.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3925,22 +3620,22 @@
         <f aca="false">IF($M$18, "ΒΠΜ, χρειάζονται 4!", IF(AND($D$14,$D$19), "ΒΠΜ 1ης ή ΒΠΜ 6ης Ειδίκευσης!", IF($D$14, "ΒΠΜ 1ης ειδίκευσης, χρειάζονται 4!", IF($D$19, "ΒΠΜ 6ης ειδίκευσης, χρειάζονται 4!", "Προαιρετικό"))))</f>
         <v>ΒΠΜ, χρειάζονται 4!</v>
       </c>
-      <c r="B107" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="C107" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="D107" s="11" t="n">
+      <c r="B107" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="C107" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="D107" s="12" t="n">
         <v>6</v>
       </c>
-      <c r="E107" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="H107" s="28"/>
+      <c r="E107" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H107" s="29"/>
       <c r="L107" s="1" t="n">
         <f aca="false">IF(E107&gt;4, 1, 0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N107" s="1" t="n">
         <f aca="false">IF(ISNUMBER(SEARCH("ΒΠΜ 1ης", $A107)), $L107, 0)</f>
@@ -3972,7 +3667,7 @@
       </c>
       <c r="U107" s="1" t="n">
         <f aca="false">IF(ISNUMBER(SEARCH("ΒΠΜ", $A107)), $L107, 0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="39.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3980,23 +3675,23 @@
         <f aca="false">IF($M$18, IF($D$8, "ΒΠΜ, χρειάζονται 4!", "Προαιρετικό"), IF(AND($D$15,$D$16), "ΒΠΜ 2ης ή ΒΠΜ 3ης Ειδίκευσης!", IF($D$15, "ΒΠΜ 2ης ειδίκευσης, χρειάζονται 4!", IF($D$16, "ΒΠΜ 3ης ειδίκευσης, χρειάζονται 4!", "Προαιρετικό"))))</f>
         <v>Προαιρετικό</v>
       </c>
-      <c r="B108" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="C108" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="D108" s="11" t="n">
+      <c r="B108" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="C108" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="D108" s="12" t="n">
         <v>6</v>
       </c>
-      <c r="E108" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="H108" s="29"/>
-      <c r="I108" s="29"/>
+      <c r="E108" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H108" s="30"/>
+      <c r="I108" s="30"/>
       <c r="L108" s="1" t="n">
         <f aca="false">IF(E108&gt;4, 1, 0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N108" s="1" t="n">
         <f aca="false">IF(ISNUMBER(SEARCH("ΒΠΜ 1ης", $A108)), $L108, 0)</f>
@@ -4036,23 +3731,23 @@
         <f aca="false">IF($M$18, IF($D$9, "ΒΠΜ, χρειάζονται 4!", "Προαιρετικό"), IF($D$17, "ΒΠΜ 4ης ειδίκευσης, χρειάζονται 4!", "Προαιρετικό"))</f>
         <v>ΒΠΜ, χρειάζονται 4!</v>
       </c>
-      <c r="B109" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C109" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="D109" s="11" t="n">
+      <c r="B109" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C109" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="D109" s="12" t="n">
         <v>6</v>
       </c>
-      <c r="E109" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="H109" s="30"/>
-      <c r="I109" s="30"/>
+      <c r="E109" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H109" s="31"/>
+      <c r="I109" s="31"/>
       <c r="L109" s="1" t="n">
         <f aca="false">IF(E109&gt;4, 1, 0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N109" s="1" t="n">
         <f aca="false">IF(ISNUMBER(SEARCH("ΒΠΜ 1ης", $A109)), $L109, 0)</f>
@@ -4084,7 +3779,7 @@
       </c>
       <c r="U109" s="1" t="n">
         <f aca="false">IF(ISNUMBER(SEARCH("ΒΠΜ", $A109)), $L109, 0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="39.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4092,23 +3787,23 @@
         <f aca="false">IF($M$18, "ΒΠΜ, χρειάζονται 4!", IF(AND($D$16,$D$17), "ΒΠΜ 3ης ή ΒΠΜ 4ης Ειδίκευσης!", IF($D$16, "ΒΠΜ 3ης ειδίκευσης, χρειάζονται 4!", IF($D$17, "ΒΠΜ 4ης ειδίκευσης, χρειάζονται 4!", "Προαιρετικό"))))</f>
         <v>ΒΠΜ, χρειάζονται 4!</v>
       </c>
-      <c r="B110" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="C110" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="D110" s="11" t="n">
+      <c r="B110" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="C110" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="D110" s="12" t="n">
         <v>6</v>
       </c>
-      <c r="E110" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="H110" s="29"/>
-      <c r="I110" s="30"/>
+      <c r="E110" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H110" s="30"/>
+      <c r="I110" s="31"/>
       <c r="L110" s="1" t="n">
         <f aca="false">IF(E110&gt;4, 1, 0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N110" s="1" t="n">
         <f aca="false">IF(ISNUMBER(SEARCH("ΒΠΜ 1ης", $A110)), $L110, 0)</f>
@@ -4140,7 +3835,7 @@
       </c>
       <c r="U110" s="1" t="n">
         <f aca="false">IF(ISNUMBER(SEARCH("ΒΠΜ", $A110)), $L110, 0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="39.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4148,23 +3843,23 @@
         <f aca="false">IF($M$18, IF($D$9, "ΒΠΜ, χρειάζονται 4!", "Προαιρετικό"), IF($D$18, "ΒΠΜ 5ης ειδίκευσης, χρειάζονται 4!", "Προαιρετικό"))</f>
         <v>ΒΠΜ, χρειάζονται 4!</v>
       </c>
-      <c r="B111" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="C111" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="D111" s="11" t="n">
+      <c r="B111" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="C111" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="D111" s="12" t="n">
         <v>6</v>
       </c>
-      <c r="E111" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="H111" s="29"/>
-      <c r="I111" s="29"/>
+      <c r="E111" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H111" s="30"/>
+      <c r="I111" s="30"/>
       <c r="L111" s="1" t="n">
         <f aca="false">IF(E111&gt;4, 1, 0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N111" s="1" t="n">
         <f aca="false">IF(ISNUMBER(SEARCH("ΒΠΜ 1ης", $A111)), $L111, 0)</f>
@@ -4196,7 +3891,7 @@
       </c>
       <c r="U111" s="1" t="n">
         <f aca="false">IF(ISNUMBER(SEARCH("ΒΠΜ", $A111)), $L111, 0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="39.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4204,23 +3899,23 @@
         <f aca="false">IF($M$18, IF($D$9, "ΒΠΜ, χρειάζονται 4!", "Προαιρετικό"), IF($D$18, "ΒΠΜ 5ης ειδίκευσης, χρειάζονται 4!", "Προαιρετικό"))</f>
         <v>ΒΠΜ, χρειάζονται 4!</v>
       </c>
-      <c r="B112" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="C112" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="D112" s="11" t="n">
+      <c r="B112" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="C112" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="D112" s="12" t="n">
         <v>6</v>
       </c>
-      <c r="E112" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="H112" s="30"/>
-      <c r="I112" s="30"/>
+      <c r="E112" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H112" s="31"/>
+      <c r="I112" s="31"/>
       <c r="L112" s="1" t="n">
         <f aca="false">IF(E112&gt;4, 1, 0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N112" s="1" t="n">
         <f aca="false">IF(ISNUMBER(SEARCH("ΒΠΜ 1ης", $A112)), $L112, 0)</f>
@@ -4252,7 +3947,7 @@
       </c>
       <c r="U112" s="1" t="n">
         <f aca="false">IF(ISNUMBER(SEARCH("ΒΠΜ", $A112)), $L112, 0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="39.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4260,23 +3955,23 @@
         <f aca="false">IF($M$18, IF($D$9, "ΒΠΜ, χρειάζονται 4!", "Προαιρετικό"), IF($D$19, "ΒΠΜ 6ης ειδίκευσης, χρειάζονται 4!", "Προαιρετικό"))</f>
         <v>ΒΠΜ, χρειάζονται 4!</v>
       </c>
-      <c r="B113" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="C113" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="D113" s="11" t="n">
+      <c r="B113" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="C113" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="D113" s="12" t="n">
         <v>6</v>
       </c>
-      <c r="E113" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="H113" s="30"/>
-      <c r="I113" s="30"/>
+      <c r="E113" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H113" s="31"/>
+      <c r="I113" s="31"/>
       <c r="L113" s="1" t="n">
         <f aca="false">IF(E113&gt;4, 1, 0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N113" s="1" t="n">
         <f aca="false">IF(ISNUMBER(SEARCH("ΒΠΜ 1ης", $A113)), $L113, 0)</f>
@@ -4308,30 +4003,30 @@
       </c>
       <c r="U113" s="1" t="n">
         <f aca="false">IF(ISNUMBER(SEARCH("ΒΠΜ", $A113)), $L113, 0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="39.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B114" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="C114" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="D114" s="11" t="n">
+        <v>75</v>
+      </c>
+      <c r="B114" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="C114" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="D114" s="12" t="n">
         <v>6</v>
       </c>
-      <c r="E114" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="H114" s="30"/>
-      <c r="I114" s="30"/>
+      <c r="E114" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H114" s="31"/>
+      <c r="I114" s="31"/>
       <c r="L114" s="1" t="n">
         <f aca="false">IF(E114&gt;4, 1, 0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N114" s="1" t="n">
         <f aca="false">IF(ISNUMBER(SEARCH("ΒΠΜ 1ης", $A114)), $L114, 0)</f>
@@ -4371,23 +4066,23 @@
         <f aca="false">IF($M$18, IF($D$8, "ΒΠΜ, χρειάζονται 4!", "Προαιρετικό"), IF($D$14, "ΒΠΜ 1ης ειδίκευσης, χρειάζονται 4!", "Προαιρετικό"))</f>
         <v>Προαιρετικό</v>
       </c>
-      <c r="B115" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="C115" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="D115" s="11" t="n">
+      <c r="B115" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="C115" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="D115" s="12" t="n">
         <v>6</v>
       </c>
-      <c r="E115" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="H115" s="30"/>
-      <c r="I115" s="30"/>
+      <c r="E115" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H115" s="31"/>
+      <c r="I115" s="31"/>
       <c r="L115" s="1" t="n">
         <f aca="false">IF(E115&gt;4, 1, 0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N115" s="1" t="n">
         <f aca="false">IF(ISNUMBER(SEARCH("ΒΠΜ 1ης", $A115)), $L115, 0)</f>
@@ -4424,25 +4119,25 @@
     </row>
     <row r="116" customFormat="false" ht="53.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B116" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="C116" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="D116" s="11" t="n">
+        <v>75</v>
+      </c>
+      <c r="B116" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="C116" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="D116" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="E116" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="H116" s="30"/>
-      <c r="I116" s="30"/>
+      <c r="E116" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H116" s="31"/>
+      <c r="I116" s="31"/>
       <c r="L116" s="1" t="n">
         <f aca="false">IF(E116&gt;4, 1, 0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N116" s="1" t="n">
         <f aca="false">IF(ISNUMBER(SEARCH("ΒΠΜ 1ης", $A116)), $L116, 0)</f>
@@ -4479,25 +4174,25 @@
     </row>
     <row r="117" customFormat="false" ht="39.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B117" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="C117" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="D117" s="11" t="n">
+        <v>75</v>
+      </c>
+      <c r="B117" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="C117" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="D117" s="12" t="n">
         <v>6</v>
       </c>
-      <c r="E117" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="H117" s="29"/>
-      <c r="I117" s="30"/>
+      <c r="E117" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H117" s="30"/>
+      <c r="I117" s="31"/>
       <c r="L117" s="1" t="n">
         <f aca="false">IF(E117&gt;4, 1, 0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N117" s="1" t="n">
         <f aca="false">IF(ISNUMBER(SEARCH("ΒΠΜ 1ης", $A117)), $L117, 0)</f>
@@ -4537,21 +4232,21 @@
         <f aca="false">IF($M$18, IF($D$8, "ΒΠΜ, χρειάζονται 4!", "Προαιρετικό"), IF($D$15, "ΒΠΜ 2ης ειδίκευσης, χρειάζονται 4!", "Προαιρετικό"))</f>
         <v>Προαιρετικό</v>
       </c>
-      <c r="B118" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="C118" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="D118" s="11" t="n">
+      <c r="B118" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="C118" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="D118" s="12" t="n">
         <v>6</v>
       </c>
-      <c r="E118" s="15" t="n">
-        <v>5</v>
+      <c r="E118" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="L118" s="1" t="n">
         <f aca="false">IF(E118&gt;4, 1, 0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N118" s="1" t="n">
         <f aca="false">IF(ISNUMBER(SEARCH("ΒΠΜ 1ης", $A118)), $L118, 0)</f>
@@ -4591,21 +4286,21 @@
         <f aca="false">IF($M$18, IF($D$8, "ΒΠΜ, χρειάζονται 4!", "Προαιρετικό"), IF($D$15, "ΒΠΜ 2ης ειδίκευσης, χρειάζονται 4!", "Προαιρετικό"))</f>
         <v>Προαιρετικό</v>
       </c>
-      <c r="B119" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="C119" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="D119" s="11" t="n">
+      <c r="B119" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="C119" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="D119" s="12" t="n">
         <v>6</v>
       </c>
-      <c r="E119" s="15" t="n">
-        <v>5</v>
+      <c r="E119" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="L119" s="1" t="n">
         <f aca="false">IF(E119&gt;4, 1, 0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N119" s="1" t="n">
         <f aca="false">IF(ISNUMBER(SEARCH("ΒΠΜ 1ης", $A119)), $L119, 0)</f>
@@ -4645,21 +4340,21 @@
         <f aca="false">IF($M$18, IF($D$8, "ΒΠΜ, χρειάζονται 4!", "Προαιρετικό"), IF($D$16, "ΒΠΜ 3ης ειδίκευσης, χρειάζονται 4!", "Προαιρετικό"))</f>
         <v>Προαιρετικό</v>
       </c>
-      <c r="B120" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="C120" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="D120" s="11" t="n">
+      <c r="B120" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="C120" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="D120" s="12" t="n">
         <v>6</v>
       </c>
-      <c r="E120" s="15" t="n">
-        <v>5</v>
+      <c r="E120" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="L120" s="1" t="n">
         <f aca="false">IF(E120&gt;4, 1, 0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N120" s="1" t="n">
         <f aca="false">IF(ISNUMBER(SEARCH("ΒΠΜ 1ης", $A120)), $L120, 0)</f>
@@ -4699,21 +4394,21 @@
         <f aca="false">IF($M$18, "ΒΠΜ, χρειάζονται 4!", IF(AND($D$16,$D$18), "ΒΠΜ 3ης ή ΒΠΜ 5ης Ειδίκευσης!", IF($D$16, "ΒΠΜ 3ης ειδίκευσης, χρειάζονται 4!", IF($D$18, "ΒΠΜ 5ης ειδίκευσης, χρειάζονται 4!", "Προαιρετικό"))))</f>
         <v>ΒΠΜ, χρειάζονται 4!</v>
       </c>
-      <c r="B121" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="C121" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="D121" s="11" t="n">
+      <c r="B121" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="C121" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="D121" s="12" t="n">
         <v>6</v>
       </c>
-      <c r="E121" s="15" t="n">
-        <v>5</v>
+      <c r="E121" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="L121" s="1" t="n">
         <f aca="false">IF(E121&gt;4, 1, 0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N121" s="1" t="n">
         <f aca="false">IF(ISNUMBER(SEARCH("ΒΠΜ 1ης", $A121)), $L121, 0)</f>
@@ -4745,7 +4440,7 @@
       </c>
       <c r="U121" s="1" t="n">
         <f aca="false">IF(ISNUMBER(SEARCH("ΒΠΜ", $A121)), $L121, 0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="39.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4753,21 +4448,21 @@
         <f aca="false">IF($M$18, IF($D$9, "ΒΠΜ, χρειάζονται 4!", "Προαιρετικό"), IF($D$17, "ΒΠΜ 4ης ειδίκευσης, χρειάζονται 4!", "Προαιρετικό"))</f>
         <v>ΒΠΜ, χρειάζονται 4!</v>
       </c>
-      <c r="B122" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="C122" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="D122" s="11" t="n">
+      <c r="B122" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="C122" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="D122" s="12" t="n">
         <v>6</v>
       </c>
-      <c r="E122" s="15" t="n">
-        <v>5</v>
+      <c r="E122" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="L122" s="1" t="n">
         <f aca="false">IF(E122&gt;4, 1, 0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N122" s="1" t="n">
         <f aca="false">IF(ISNUMBER(SEARCH("ΒΠΜ 1ης", $A122)), $L122, 0)</f>
@@ -4799,7 +4494,7 @@
       </c>
       <c r="U122" s="1" t="n">
         <f aca="false">IF(ISNUMBER(SEARCH("ΒΠΜ", $A122)), $L122, 0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="39.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4807,21 +4502,21 @@
         <f aca="false">IF($M$18, IF($D$9, "ΒΠΜ, χρειάζονται 4!", "Προαιρετικό"), IF(AND($D$17,$D$18), "ΒΠΜ 4ης ή ΒΠΜ 5ης Ειδίκευσης!", IF($D$17, "ΒΠΜ 4ης ειδίκευσης, χρειάζονται 4!", IF($D$18, "ΒΠΜ 5ης ειδίκευσης, χρειάζονται 4!", "Προαιρετικό"))))</f>
         <v>ΒΠΜ, χρειάζονται 4!</v>
       </c>
-      <c r="B123" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="C123" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="D123" s="11" t="n">
+      <c r="B123" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="C123" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="D123" s="12" t="n">
         <v>6</v>
       </c>
-      <c r="E123" s="15" t="n">
-        <v>5</v>
+      <c r="E123" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="L123" s="1" t="n">
         <f aca="false">IF(E123&gt;4, 1, 0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N123" s="1" t="n">
         <f aca="false">IF(ISNUMBER(SEARCH("ΒΠΜ 1ης", $A123)), $L123, 0)</f>
@@ -4853,7 +4548,7 @@
       </c>
       <c r="U123" s="1" t="n">
         <f aca="false">IF(ISNUMBER(SEARCH("ΒΠΜ", $A123)), $L123, 0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="39.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4861,21 +4556,21 @@
         <f aca="false">IF($M$18, IF($D$9, "ΒΠΜ, χρειάζονται 4!", "Προαιρετικό"), IF(AND($D$18,$D$19), "ΒΠΜ 5ης ή ΒΠΜ 6ης Ειδίκευσης!", IF($D$18, "ΒΠΜ 5ης ειδίκευσης, χρειάζονται 4!", IF($D$19, "ΒΠΜ 6ης ειδίκευσης, χρειάζονται 4!", "Προαιρετικό"))))</f>
         <v>ΒΠΜ, χρειάζονται 4!</v>
       </c>
-      <c r="B124" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="C124" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="D124" s="11" t="n">
+      <c r="B124" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="C124" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="D124" s="12" t="n">
         <v>6</v>
       </c>
-      <c r="E124" s="15" t="n">
-        <v>5</v>
+      <c r="E124" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="L124" s="1" t="n">
         <f aca="false">IF(E124&gt;4, 1, 0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N124" s="1" t="n">
         <f aca="false">IF(ISNUMBER(SEARCH("ΒΠΜ 1ης", $A124)), $L124, 0)</f>
@@ -4907,7 +4602,7 @@
       </c>
       <c r="U124" s="1" t="n">
         <f aca="false">IF(ISNUMBER(SEARCH("ΒΠΜ", $A124)), $L124, 0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="39.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4915,21 +4610,21 @@
         <f aca="false">IF($M$18, "ΒΠΜ, χρειάζονται 4!", IF(AND($D$14,$D$15), "ΒΠΜ 1ης ή ΒΠΜ 2ης Ειδίκευσης!", IF(AND($D$14,$D$19), "ΒΠΜ 1ης ή ΒΠΜ 6ης Ειδίκευσης!", IF(AND($D$15,$D$19), "ΒΠΜ 2ης ή ΒΠΜ 6ης Ειδίκευσης!", IF($D$14, "ΒΠΜ 1ης ειδίκευσης, χρειάζονται 4!", IF($D$15, "ΒΠΜ 2ης ειδίκευσης, χρειάζονται 4!", IF($D$19, "ΒΠΜ 6ης ειδίκευσης, χρειάζονται 4!", "Προαιρετικό")))))))</f>
         <v>ΒΠΜ, χρειάζονται 4!</v>
       </c>
-      <c r="B125" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="C125" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="D125" s="11" t="n">
+      <c r="B125" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="C125" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="D125" s="12" t="n">
         <v>6</v>
       </c>
-      <c r="E125" s="15" t="n">
-        <v>5</v>
+      <c r="E125" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="L125" s="1" t="n">
         <f aca="false">IF(E125&gt;4, 1, 0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N125" s="1" t="n">
         <f aca="false">IF(ISNUMBER(SEARCH("ΒΠΜ 1ης", $A125)), $L125, 0)</f>
@@ -4961,7 +4656,7 @@
       </c>
       <c r="U125" s="1" t="n">
         <f aca="false">IF(ISNUMBER(SEARCH("ΒΠΜ", $A125)), $L125, 0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="39.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4969,21 +4664,21 @@
         <f aca="false">IF($M$18, "ΒΠΜ, χρειάζονται 4!", IF(AND($D$14,$D$15), "ΒΠΜ 1ης ή ΒΠΜ 2ης Ειδίκευσης!", IF(AND($D$14,$D$19), "ΒΠΜ 1ης ή ΒΠΜ 6ης Ειδίκευσης!", IF(AND($D$15,$D$19), "ΒΠΜ 2ης ή ΒΠΜ 6ης Ειδίκευσης!", IF($D$14, "ΒΠΜ 1ης ειδίκευσης, χρειάζονται 4!", IF($D$15, "ΒΠΜ 2ης ειδίκευσης, χρειάζονται 4!", IF($D$19, "ΒΠΜ 6ης ειδίκευσης, χρειάζονται 4!", "Προαιρετικό")))))))</f>
         <v>ΒΠΜ, χρειάζονται 4!</v>
       </c>
-      <c r="B126" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="C126" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="D126" s="11" t="n">
+      <c r="B126" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="C126" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="D126" s="12" t="n">
         <v>6</v>
       </c>
-      <c r="E126" s="15" t="n">
-        <v>5</v>
+      <c r="E126" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="L126" s="1" t="n">
         <f aca="false">IF(E126&gt;4, 1, 0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N126" s="1" t="n">
         <f aca="false">IF(ISNUMBER(SEARCH("ΒΠΜ 1ης", $A126)), $L126, 0)</f>
@@ -5015,7 +4710,7 @@
       </c>
       <c r="U126" s="1" t="n">
         <f aca="false">IF(ISNUMBER(SEARCH("ΒΠΜ", $A126)), $L126, 0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="39.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5023,21 +4718,21 @@
         <f aca="false">IF($M$18, "ΒΠΜ, χρειάζονται 4!", IF(AND($D$14,$D$15), "ΒΠΜ 1ης ή ΒΠΜ 2ης Ειδίκευσης!", IF(AND($D$14,$D$19), "ΒΠΜ 1ης ή ΒΠΜ 6ης Ειδίκευσης!", IF(AND($D$15,$D$19), "ΒΠΜ 2ης ή ΒΠΜ 6ης Ειδίκευσης!", IF($D$14, "ΒΠΜ 1ης ειδίκευσης, χρειάζονται 4!", IF($D$15, "ΒΠΜ 2ης ειδίκευσης, χρειάζονται 4!", IF($D$19, "ΒΠΜ 6ης ειδίκευσης, χρειάζονται 4!", "Προαιρετικό")))))))</f>
         <v>ΒΠΜ, χρειάζονται 4!</v>
       </c>
-      <c r="B127" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="C127" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="D127" s="11" t="n">
+      <c r="B127" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="C127" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="D127" s="12" t="n">
         <v>6</v>
       </c>
-      <c r="E127" s="15" t="n">
-        <v>5</v>
+      <c r="E127" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="L127" s="1" t="n">
         <f aca="false">IF(E127&gt;4, 1, 0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N127" s="1" t="n">
         <f aca="false">IF(ISNUMBER(SEARCH("ΒΠΜ 1ης", $A127)), $L127, 0)</f>
@@ -5069,7 +4764,7 @@
       </c>
       <c r="U127" s="1" t="n">
         <f aca="false">IF(ISNUMBER(SEARCH("ΒΠΜ", $A127)), $L127, 0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="39.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5077,21 +4772,21 @@
         <f aca="false">IF($M$18, IF($D$8, "ΒΠΜ, χρειάζονται 4!", "Προαιρετικό"), IF($D$14, "ΒΠΜ 1ης ειδίκευσης, χρειάζονται 4!", "Προαιρετικό"))</f>
         <v>Προαιρετικό</v>
       </c>
-      <c r="B128" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="C128" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="D128" s="11" t="n">
+      <c r="B128" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="C128" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="D128" s="12" t="n">
         <v>6</v>
       </c>
-      <c r="E128" s="15" t="n">
-        <v>5</v>
+      <c r="E128" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="L128" s="1" t="n">
         <f aca="false">IF(E128&gt;4, 1, 0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N128" s="1" t="n">
         <f aca="false">IF(ISNUMBER(SEARCH("ΒΠΜ 1ης", $A128)), $L128, 0)</f>
@@ -5131,21 +4826,21 @@
         <f aca="false">IF($M$18, IF($D$8, "ΒΠΜ, χρειάζονται 4!", "Προαιρετικό"), IF($D$14, "ΒΠΜ 1ης ειδίκευσης, χρειάζονται 4!", "Προαιρετικό"))</f>
         <v>Προαιρετικό</v>
       </c>
-      <c r="B129" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="C129" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="D129" s="11" t="n">
+      <c r="B129" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="C129" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="D129" s="12" t="n">
         <v>6</v>
       </c>
-      <c r="E129" s="15" t="n">
-        <v>5</v>
+      <c r="E129" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="L129" s="1" t="n">
         <f aca="false">IF(E129&gt;4, 1, 0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N129" s="1" t="n">
         <f aca="false">IF(ISNUMBER(SEARCH("ΒΠΜ 1ης", $A129)), $L129, 0)</f>
@@ -5182,23 +4877,23 @@
     </row>
     <row r="130" customFormat="false" ht="39.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B130" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="C130" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="D130" s="11" t="n">
+        <v>75</v>
+      </c>
+      <c r="B130" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="C130" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="D130" s="12" t="n">
         <v>6</v>
       </c>
-      <c r="E130" s="15" t="n">
-        <v>5</v>
+      <c r="E130" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="L130" s="1" t="n">
         <f aca="false">IF(E130&gt;4, 1, 0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N130" s="1" t="n">
         <f aca="false">IF(ISNUMBER(SEARCH("ΒΠΜ 1ης", $A130)), $L130, 0)</f>
@@ -5238,21 +4933,21 @@
         <f aca="false">IF($M$18, IF($D$8, "ΒΠΜ, χρειάζονται 4!", "Προαιρετικό"), IF(AND($D$15,$D$16), "ΒΠΜ 2ης ή ΒΠΜ 3ης Ειδίκευσης!", IF($D$15, "ΒΠΜ 2ης ειδίκευσης, χρειάζονται 4!", IF($D$16, "ΒΠΜ 3ης ειδίκευσης, χρειάζονται 4!", "Προαιρετικό"))))</f>
         <v>Προαιρετικό</v>
       </c>
-      <c r="B131" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="C131" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="D131" s="11" t="n">
+      <c r="B131" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="C131" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="D131" s="12" t="n">
         <v>6</v>
       </c>
-      <c r="E131" s="15" t="n">
-        <v>5</v>
+      <c r="E131" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="L131" s="1" t="n">
         <f aca="false">IF(E131&gt;4, 1, 0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N131" s="1" t="n">
         <f aca="false">IF(ISNUMBER(SEARCH("ΒΠΜ 1ης", $A131)), $L131, 0)</f>
@@ -5292,21 +4987,21 @@
         <f aca="false">IF($M$18, IF($D$8, "ΒΠΜ, χρειάζονται 4!", "Προαιρετικό"), IF($D$16, "ΒΠΜ 3ης ειδίκευσης, χρειάζονται 4!", "Προαιρετικό"))</f>
         <v>Προαιρετικό</v>
       </c>
-      <c r="B132" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="C132" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="D132" s="11" t="n">
+      <c r="B132" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="C132" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="D132" s="12" t="n">
         <v>6</v>
       </c>
-      <c r="E132" s="15" t="n">
-        <v>5</v>
+      <c r="E132" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="L132" s="1" t="n">
         <f aca="false">IF(E132&gt;4, 1, 0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N132" s="1" t="n">
         <f aca="false">IF(ISNUMBER(SEARCH("ΒΠΜ 1ης", $A132)), $L132, 0)</f>
@@ -5343,23 +5038,23 @@
     </row>
     <row r="133" customFormat="false" ht="39.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B133" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="C133" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="D133" s="11" t="n">
+        <v>75</v>
+      </c>
+      <c r="B133" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="C133" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="D133" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="E133" s="15" t="n">
-        <v>5</v>
+      <c r="E133" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="L133" s="1" t="n">
         <f aca="false">IF(E133&gt;4, 1, 0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N133" s="1" t="n">
         <f aca="false">IF(ISNUMBER(SEARCH("ΒΠΜ 1ης", $A133)), $L133, 0)</f>
@@ -5399,21 +5094,21 @@
         <f aca="false">IF($M$18, IF($D$9, "ΒΠΜ, χρειάζονται 4!", "Προαιρετικό"), IF(AND($D$17,$D$19), "ΒΠΜ 4ης ή ΒΠΜ 6ης Ειδίκευσης!", IF($D$17, "ΒΠΜ 4ης ειδίκευσης, χρειάζονται 4!", IF($D$19, "ΒΠΜ 6ης ειδίκευσης, χρειάζονται 4!", "Προαιρετικό"))))</f>
         <v>ΒΠΜ, χρειάζονται 4!</v>
       </c>
-      <c r="B134" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="C134" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="D134" s="11" t="n">
+      <c r="B134" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="C134" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="D134" s="12" t="n">
         <v>6</v>
       </c>
-      <c r="E134" s="15" t="n">
-        <v>5</v>
+      <c r="E134" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="L134" s="1" t="n">
         <f aca="false">IF(E134&gt;4, 1, 0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N134" s="1" t="n">
         <f aca="false">IF(ISNUMBER(SEARCH("ΒΠΜ 1ης", $A134)), $L134, 0)</f>
@@ -5445,29 +5140,29 @@
       </c>
       <c r="U134" s="1" t="n">
         <f aca="false">IF(ISNUMBER(SEARCH("ΒΠΜ", $A134)), $L134, 0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="39.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A135" s="31" t="str">
+      <c r="A135" s="32" t="str">
         <f aca="false">IF($M$18, IF($D$9, "ΒΠΜ, χρειάζονται 4!", "Προαιρετικό"), IF(AND($D$17,$D$18), "ΒΠΜ 4ης ή ΒΠΜ 5ης Ειδίκευσης!", IF($D$17, "ΒΠΜ 4ης ειδίκευσης, χρειάζονται 4!", IF($D$18, "ΒΠΜ 5ης ειδίκευσης, χρειάζονται 4!", "Προαιρετικό"))))</f>
         <v>ΒΠΜ, χρειάζονται 4!</v>
       </c>
-      <c r="B135" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="C135" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="D135" s="11" t="n">
+      <c r="B135" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="C135" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="D135" s="12" t="n">
         <v>6</v>
       </c>
-      <c r="E135" s="15" t="n">
-        <v>5</v>
+      <c r="E135" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="L135" s="1" t="n">
         <f aca="false">IF(E135&gt;4, 1, 0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N135" s="1" t="n">
         <f aca="false">IF(ISNUMBER(SEARCH("ΒΠΜ 1ης", $A135)), $L135, 0)</f>
@@ -5499,7 +5194,7 @@
       </c>
       <c r="U135" s="1" t="n">
         <f aca="false">IF(ISNUMBER(SEARCH("ΒΠΜ", $A135)), $L135, 0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="39.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5507,21 +5202,21 @@
         <f aca="false">IF($M$18, IF($D$9, "ΒΠΜ, χρειάζονται 4!", "Προαιρετικό"), IF($D$18, "ΒΠΜ 5ης ειδίκευσης, χρειάζονται 4!", "Προαιρετικό"))</f>
         <v>ΒΠΜ, χρειάζονται 4!</v>
       </c>
-      <c r="B136" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="C136" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="D136" s="11" t="n">
+      <c r="B136" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="C136" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="D136" s="12" t="n">
         <v>6</v>
       </c>
-      <c r="E136" s="15" t="n">
-        <v>5</v>
+      <c r="E136" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="L136" s="1" t="n">
         <f aca="false">IF(E136&gt;4, 1, 0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N136" s="1" t="n">
         <f aca="false">IF(ISNUMBER(SEARCH("ΒΠΜ 1ης", $A136)), $L136, 0)</f>
@@ -5553,28 +5248,28 @@
       </c>
       <c r="U136" s="1" t="n">
         <f aca="false">IF(ISNUMBER(SEARCH("ΒΠΜ", $A136)), $L136, 0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="39.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B137" s="11" t="s">
-        <v>213</v>
-      </c>
-      <c r="C137" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="D137" s="11" t="n">
+        <v>75</v>
+      </c>
+      <c r="B137" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="C137" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="D137" s="12" t="n">
         <v>6</v>
       </c>
-      <c r="E137" s="15" t="n">
-        <v>5</v>
+      <c r="E137" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="L137" s="1" t="n">
         <f aca="false">IF(E137&gt;4, 1, 0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N137" s="1" t="n">
         <f aca="false">IF(ISNUMBER(SEARCH("ΒΠΜ 1ης", $A137)), $L137, 0)</f>
@@ -5611,23 +5306,23 @@
     </row>
     <row r="138" customFormat="false" ht="80.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B138" s="11" t="s">
-        <v>215</v>
-      </c>
-      <c r="C138" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="D138" s="11" t="n">
+        <v>75</v>
+      </c>
+      <c r="B138" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="C138" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="D138" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="E138" s="15" t="n">
-        <v>5</v>
+      <c r="E138" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="L138" s="1" t="n">
         <f aca="false">IF(E138&gt;4, 1, 0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N138" s="1" t="n">
         <f aca="false">IF(ISNUMBER(SEARCH("ΒΠΜ 1ης", $A138)), $L138, 0)</f>
@@ -5664,23 +5359,23 @@
     </row>
     <row r="139" customFormat="false" ht="39.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B139" s="11" t="s">
-        <v>217</v>
-      </c>
-      <c r="C139" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="D139" s="11" t="n">
+        <v>75</v>
+      </c>
+      <c r="B139" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="C139" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="D139" s="12" t="n">
         <v>6</v>
       </c>
-      <c r="E139" s="15" t="n">
-        <v>5</v>
+      <c r="E139" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="L139" s="1" t="n">
         <f aca="false">IF(E139&gt;4, 1, 0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N139" s="1" t="n">
         <f aca="false">IF(ISNUMBER(SEARCH("ΒΠΜ 1ης", $A139)), $L139, 0)</f>
@@ -5720,21 +5415,21 @@
         <f aca="false">IF($M$18, IF($D$8, "ΒΠΜ, χρειάζονται 4!", "Προαιρετικό"), IF($D$14, "ΒΠΜ 1ης ειδίκευσης, χρειάζονται 4!", "Προαιρετικό"))</f>
         <v>Προαιρετικό</v>
       </c>
-      <c r="B140" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="C140" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="D140" s="11" t="n">
+      <c r="B140" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="C140" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="D140" s="12" t="n">
         <v>6</v>
       </c>
-      <c r="E140" s="15" t="n">
-        <v>5</v>
+      <c r="E140" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="L140" s="1" t="n">
         <f aca="false">IF(E140&gt;4, 1, 0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N140" s="1" t="n">
         <f aca="false">IF(ISNUMBER(SEARCH("ΒΠΜ 1ης", $A140)), $L140, 0)</f>
@@ -5774,21 +5469,21 @@
         <f aca="false">IF($M$18, IF($D$8, "ΒΠΜ, χρειάζονται 4!", "Προαιρετικό"), IF($D$14, "ΒΠΜ 1ης ειδίκευσης, χρειάζονται 4!", "Προαιρετικό"))</f>
         <v>Προαιρετικό</v>
       </c>
-      <c r="B141" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="C141" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="D141" s="11" t="n">
+      <c r="B141" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="C141" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="D141" s="12" t="n">
         <v>6</v>
       </c>
-      <c r="E141" s="15" t="n">
-        <v>5</v>
+      <c r="E141" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="L141" s="1" t="n">
         <f aca="false">IF(E141&gt;4, 1, 0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N141" s="1" t="n">
         <f aca="false">IF(ISNUMBER(SEARCH("ΒΠΜ 1ης", $A141)), $L141, 0)</f>
@@ -5825,23 +5520,23 @@
     </row>
     <row r="142" customFormat="false" ht="39.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B142" s="11" t="s">
-        <v>223</v>
-      </c>
-      <c r="C142" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="D142" s="11" t="n">
+        <v>75</v>
+      </c>
+      <c r="B142" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="C142" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="D142" s="12" t="n">
         <v>6</v>
       </c>
-      <c r="E142" s="15" t="n">
-        <v>5</v>
+      <c r="E142" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="L142" s="1" t="n">
         <f aca="false">IF(E142&gt;4, 1, 0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N142" s="1" t="n">
         <f aca="false">IF(ISNUMBER(SEARCH("ΒΠΜ 1ης", $A142)), $L142, 0)</f>
@@ -5881,21 +5576,21 @@
         <f aca="false">IF($M$18, IF($D$8, "ΒΠΜ, χρειάζονται 4!", "Προαιρετικό"), IF($D$15, "ΒΠΜ 2ης ειδίκευσης, χρειάζονται 4!", "Προαιρετικό"))</f>
         <v>Προαιρετικό</v>
       </c>
-      <c r="B143" s="11" t="s">
-        <v>225</v>
-      </c>
-      <c r="C143" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="D143" s="11" t="n">
+      <c r="B143" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="C143" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="D143" s="12" t="n">
         <v>6</v>
       </c>
-      <c r="E143" s="15" t="n">
-        <v>5</v>
+      <c r="E143" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="L143" s="1" t="n">
         <f aca="false">IF(E143&gt;4, 1, 0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N143" s="1" t="n">
         <f aca="false">IF(ISNUMBER(SEARCH("ΒΠΜ 1ης", $A143)), $L143, 0)</f>
@@ -5935,21 +5630,21 @@
         <f aca="false">IF($M$18, IF($D$9, "ΒΠΜ, χρειάζονται 4!", "Προαιρετικό"), IF($D$19, "ΒΠΜ 6ης ειδίκευσης, χρειάζονται 4!", "Προαιρετικό"))</f>
         <v>ΒΠΜ, χρειάζονται 4!</v>
       </c>
-      <c r="B144" s="11" t="s">
-        <v>227</v>
-      </c>
-      <c r="C144" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="D144" s="11" t="n">
+      <c r="B144" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="C144" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="D144" s="12" t="n">
         <v>6</v>
       </c>
-      <c r="E144" s="15" t="n">
-        <v>5</v>
+      <c r="E144" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="L144" s="1" t="n">
         <f aca="false">IF(E144&gt;4, 1, 0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N144" s="1" t="n">
         <f aca="false">IF(ISNUMBER(SEARCH("ΒΠΜ 1ης", $A144)), $L144, 0)</f>
@@ -5981,7 +5676,7 @@
       </c>
       <c r="U144" s="1" t="n">
         <f aca="false">IF(ISNUMBER(SEARCH("ΒΠΜ", $A144)), $L144, 0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="39.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5989,21 +5684,21 @@
         <f aca="false">IF($M$18, IF($D$8, "ΒΠΜ, χρειάζονται 4!", "Προαιρετικό"), IF($D$16, "ΒΠΜ 3ης ειδίκευσης, χρειάζονται 4!", "Προαιρετικό" ))</f>
         <v>Προαιρετικό</v>
       </c>
-      <c r="B145" s="11" t="s">
-        <v>229</v>
-      </c>
-      <c r="C145" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="D145" s="11" t="n">
+      <c r="B145" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="C145" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="D145" s="12" t="n">
         <v>6</v>
       </c>
-      <c r="E145" s="15" t="n">
-        <v>5</v>
+      <c r="E145" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="L145" s="1" t="n">
         <f aca="false">IF(E145&gt;4, 1, 0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N145" s="1" t="n">
         <f aca="false">IF(ISNUMBER(SEARCH("ΒΠΜ 1ης", $A145)), $L145, 0)</f>
@@ -6043,21 +5738,21 @@
         <f aca="false">IF($M$18, IF($D$8, "ΒΠΜ, χρειάζονται 4!", "Προαιρετικό"), IF($D$16, "ΒΠΜ 3ης ειδίκευσης, χρειάζονται 4!", "Προαιρετικό"))</f>
         <v>Προαιρετικό</v>
       </c>
-      <c r="B146" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="C146" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="D146" s="11" t="n">
+      <c r="B146" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="C146" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="D146" s="12" t="n">
         <v>6</v>
       </c>
-      <c r="E146" s="15" t="n">
-        <v>5</v>
+      <c r="E146" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="L146" s="1" t="n">
         <f aca="false">IF(E146&gt;4, 1, 0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N146" s="1" t="n">
         <f aca="false">IF(ISNUMBER(SEARCH("ΒΠΜ 1ης", $A146)), $L146, 0)</f>
@@ -6097,21 +5792,21 @@
         <f aca="false">IF($M$18, IF($D$8, "ΒΠΜ, χρειάζονται 4!", "Προαιρετικό"), IF($D$16, "ΒΠΜ 3ης ειδίκευσης, χρειάζονται 4!", "Προαιρετικό"))</f>
         <v>Προαιρετικό</v>
       </c>
-      <c r="B147" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="C147" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="D147" s="11" t="n">
+      <c r="B147" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="C147" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="D147" s="12" t="n">
         <v>6</v>
       </c>
-      <c r="E147" s="15" t="n">
-        <v>5</v>
+      <c r="E147" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="L147" s="1" t="n">
         <f aca="false">IF(E147&gt;4, 1, 0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N147" s="1" t="n">
         <f aca="false">IF(ISNUMBER(SEARCH("ΒΠΜ 1ης", $A147)), $L147, 0)</f>
@@ -6151,21 +5846,21 @@
         <f aca="false">IF($M$18, IF($D$9, "ΒΠΜ, χρειάζονται 4!", "Προαιρετικό"), IF($D$17, "ΒΠΜ 4ης ειδίκευσης, χρειάζονται 4!", "Προαιρετικό"))</f>
         <v>ΒΠΜ, χρειάζονται 4!</v>
       </c>
-      <c r="B148" s="11" t="s">
-        <v>235</v>
-      </c>
-      <c r="C148" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D148" s="11" t="n">
+      <c r="B148" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="C148" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="D148" s="12" t="n">
         <v>6</v>
       </c>
-      <c r="E148" s="15" t="n">
-        <v>5</v>
+      <c r="E148" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="L148" s="1" t="n">
         <f aca="false">IF(E148&gt;4, 1, 0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N148" s="1" t="n">
         <f aca="false">IF(ISNUMBER(SEARCH("ΒΠΜ 1ης", $A148)), $L148, 0)</f>
@@ -6197,28 +5892,28 @@
       </c>
       <c r="U148" s="1" t="n">
         <f aca="false">IF(ISNUMBER(SEARCH("ΒΠΜ", $A148)), $L148, 0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="39.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B149" s="11" t="s">
-        <v>237</v>
-      </c>
-      <c r="C149" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="D149" s="11" t="n">
+        <v>75</v>
+      </c>
+      <c r="B149" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="C149" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="D149" s="12" t="n">
         <v>6</v>
       </c>
-      <c r="E149" s="15" t="n">
-        <v>5</v>
+      <c r="E149" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="L149" s="1" t="n">
         <f aca="false">IF(E149&gt;4, 1, 0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N149" s="1" t="n">
         <f aca="false">IF(ISNUMBER(SEARCH("ΒΠΜ 1ης", $A149)), $L149, 0)</f>
@@ -6258,21 +5953,21 @@
         <f aca="false">IF($M$18, IF($D$9, "ΒΠΜ, χρειάζονται 4!", "Προαιρετικό"), IF($D$19, "ΒΠΜ 6ης ειδίκευσης, χρειάζονται 4!", "Προαιρετικό"))</f>
         <v>ΒΠΜ, χρειάζονται 4!</v>
       </c>
-      <c r="B150" s="11" t="s">
-        <v>239</v>
-      </c>
-      <c r="C150" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="D150" s="11" t="n">
+      <c r="B150" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="C150" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="D150" s="12" t="n">
         <v>6</v>
       </c>
-      <c r="E150" s="15" t="n">
-        <v>5</v>
+      <c r="E150" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="L150" s="1" t="n">
         <f aca="false">IF(E150&gt;4, 1, 0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N150" s="1" t="n">
         <f aca="false">IF(ISNUMBER(SEARCH("ΒΠΜ 1ης", $A150)), $L150, 0)</f>
@@ -6304,7 +5999,7 @@
       </c>
       <c r="U150" s="1" t="n">
         <f aca="false">IF(ISNUMBER(SEARCH("ΒΠΜ", $A150)), $L150, 0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="39.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6312,21 +6007,21 @@
         <f aca="false">IF($M$18, IF($D$9, "ΒΠΜ, χρειάζονται 4!", "Προαιρετικό"), IF($D$18, "ΒΠΜ 5ης ειδίκευσης, χρειάζονται 4!", "Προαιρετικό"))</f>
         <v>ΒΠΜ, χρειάζονται 4!</v>
       </c>
-      <c r="B151" s="11" t="s">
-        <v>241</v>
-      </c>
-      <c r="C151" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="D151" s="11" t="n">
+      <c r="B151" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="C151" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="D151" s="12" t="n">
         <v>6</v>
       </c>
-      <c r="E151" s="15" t="n">
-        <v>5</v>
+      <c r="E151" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="L151" s="1" t="n">
         <f aca="false">IF(E151&gt;4, 1, 0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N151" s="1" t="n">
         <f aca="false">IF(ISNUMBER(SEARCH("ΒΠΜ 1ης", $A151)), $L151, 0)</f>
@@ -6358,7 +6053,7 @@
       </c>
       <c r="U151" s="1" t="n">
         <f aca="false">IF(ISNUMBER(SEARCH("ΒΠΜ", $A151)), $L151, 0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="39.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6366,21 +6061,21 @@
         <f aca="false">IF($M$18, IF($D$9, "ΒΠΜ, χρειάζονται 4!", "Προαιρετικό"), IF($D$19, "ΒΠΜ 6ης ειδίκευσης, χρειάζονται 4!", "Προαιρετικό"))</f>
         <v>ΒΠΜ, χρειάζονται 4!</v>
       </c>
-      <c r="B152" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="C152" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="D152" s="11" t="n">
+      <c r="B152" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="C152" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="D152" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="E152" s="15" t="n">
-        <v>5</v>
+      <c r="E152" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="L152" s="1" t="n">
         <f aca="false">IF(E152&gt;4, 1, 0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N152" s="1" t="n">
         <f aca="false">IF(ISNUMBER(SEARCH("ΒΠΜ 1ης", $A152)), $L152, 0)</f>
@@ -6412,28 +6107,28 @@
       </c>
       <c r="U152" s="1" t="n">
         <f aca="false">IF(ISNUMBER(SEARCH("ΒΠΜ", $A152)), $L152, 0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="39.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A153" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B153" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="C153" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="D153" s="11" t="n">
+        <v>75</v>
+      </c>
+      <c r="B153" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="C153" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="D153" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="E153" s="15" t="n">
-        <v>5</v>
+      <c r="E153" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="L153" s="1" t="n">
         <f aca="false">IF(E153&gt;4, 1, 0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N153" s="1" t="n">
         <f aca="false">IF(ISNUMBER(SEARCH("ΒΠΜ 1ης", $A153)), $L153, 0)</f>
@@ -6470,23 +6165,23 @@
     </row>
     <row r="154" customFormat="false" ht="39.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A154" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B154" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="C154" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="D154" s="11" t="n">
+        <v>75</v>
+      </c>
+      <c r="B154" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="C154" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="D154" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="E154" s="15" t="n">
-        <v>5</v>
+      <c r="E154" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="L154" s="1" t="n">
         <f aca="false">IF(E154&gt;4, 1, 0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N154" s="1" t="n">
         <f aca="false">IF(ISNUMBER(SEARCH("ΒΠΜ 1ης", $A154)), $L154, 0)</f>
@@ -6523,23 +6218,23 @@
     </row>
     <row r="155" customFormat="false" ht="39.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A155" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B155" s="11" t="s">
-        <v>249</v>
-      </c>
-      <c r="C155" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="D155" s="11" t="n">
+        <v>75</v>
+      </c>
+      <c r="B155" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="C155" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="D155" s="12" t="n">
         <v>6</v>
       </c>
-      <c r="E155" s="15" t="n">
-        <v>5</v>
+      <c r="E155" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="L155" s="1" t="n">
         <f aca="false">IF(E155&gt;4, 1, 0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N155" s="1" t="n">
         <f aca="false">IF(ISNUMBER(SEARCH("ΒΠΜ 1ης", $A155)), $L155, 0)</f>
@@ -6576,23 +6271,23 @@
     </row>
     <row r="156" customFormat="false" ht="39.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A156" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B156" s="11" t="s">
-        <v>251</v>
-      </c>
-      <c r="C156" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="D156" s="11" t="n">
+        <v>75</v>
+      </c>
+      <c r="B156" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="C156" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="D156" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="E156" s="15" t="n">
-        <v>5</v>
+      <c r="E156" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="L156" s="1" t="n">
         <f aca="false">IF(E156&gt;4, 1, 0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N156" s="1" t="n">
         <f aca="false">IF(ISNUMBER(SEARCH("ΒΠΜ 1ης", $A156)), $L156, 0)</f>
@@ -6629,23 +6324,23 @@
     </row>
     <row r="157" customFormat="false" ht="80.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A157" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B157" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="C157" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="D157" s="11" t="n">
+        <v>75</v>
+      </c>
+      <c r="B157" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="C157" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="D157" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="E157" s="15" t="n">
-        <v>5</v>
+      <c r="E157" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="L157" s="1" t="n">
         <f aca="false">IF(E157&gt;4, 1, 0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N157" s="1" t="n">
         <f aca="false">IF(ISNUMBER(SEARCH("ΒΠΜ 1ης", $A157)), $L157, 0)</f>
@@ -6682,23 +6377,23 @@
     </row>
     <row r="158" customFormat="false" ht="80.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A158" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B158" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="C158" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="D158" s="11" t="n">
+        <v>75</v>
+      </c>
+      <c r="B158" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="C158" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="D158" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="E158" s="15" t="n">
-        <v>5</v>
+      <c r="E158" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="L158" s="1" t="n">
         <f aca="false">IF(E158&gt;4, 1, 0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N158" s="1" t="n">
         <f aca="false">IF(ISNUMBER(SEARCH("ΒΠΜ 1ης", $A158)), $L158, 0)</f>
@@ -6735,23 +6430,23 @@
     </row>
     <row r="159" customFormat="false" ht="39.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A159" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B159" s="11" t="s">
-        <v>257</v>
-      </c>
-      <c r="C159" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="D159" s="11" t="n">
+        <v>75</v>
+      </c>
+      <c r="B159" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="C159" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="D159" s="12" t="n">
         <v>6</v>
       </c>
-      <c r="E159" s="15" t="n">
-        <v>5</v>
+      <c r="E159" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="L159" s="1" t="n">
         <f aca="false">IF(E159&gt;4, 1, 0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N159" s="1" t="n">
         <f aca="false">IF(ISNUMBER(SEARCH("ΒΠΜ 1ης", $A159)), $L159, 0)</f>
@@ -6788,23 +6483,23 @@
     </row>
     <row r="160" customFormat="false" ht="53.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A160" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B160" s="11" t="s">
-        <v>259</v>
-      </c>
-      <c r="C160" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="D160" s="11" t="n">
+        <v>75</v>
+      </c>
+      <c r="B160" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="C160" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="D160" s="12" t="n">
         <v>6</v>
       </c>
-      <c r="E160" s="15" t="n">
-        <v>5</v>
+      <c r="E160" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="L160" s="1" t="n">
         <f aca="false">IF(E160&gt;4, 1, 0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N160" s="1" t="n">
         <f aca="false">IF(ISNUMBER(SEARCH("ΒΠΜ 1ης", $A160)), $L160, 0)</f>
@@ -6841,23 +6536,23 @@
     </row>
     <row r="161" customFormat="false" ht="39.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A161" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B161" s="11" t="s">
-        <v>261</v>
-      </c>
-      <c r="C161" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="D161" s="11" t="n">
+        <v>75</v>
+      </c>
+      <c r="B161" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="C161" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="D161" s="12" t="n">
         <v>6</v>
       </c>
-      <c r="E161" s="15" t="n">
-        <v>5</v>
+      <c r="E161" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="L161" s="1" t="n">
         <f aca="false">IF(E161&gt;4, 1, 0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N161" s="1" t="n">
         <f aca="false">IF(ISNUMBER(SEARCH("ΒΠΜ 1ης", $A161)), $L161, 0)</f>
@@ -6894,23 +6589,23 @@
     </row>
     <row r="162" customFormat="false" ht="39.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A162" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B162" s="11" t="s">
-        <v>263</v>
-      </c>
-      <c r="C162" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="D162" s="11" t="n">
+        <v>75</v>
+      </c>
+      <c r="B162" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="C162" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="D162" s="12" t="n">
         <v>6</v>
       </c>
-      <c r="E162" s="15" t="n">
-        <v>5</v>
+      <c r="E162" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="L162" s="1" t="n">
         <f aca="false">IF(E162&gt;4, 1, 0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N162" s="1" t="n">
         <f aca="false">IF(ISNUMBER(SEARCH("ΒΠΜ 1ης", $A162)), $L162, 0)</f>
@@ -6944,17 +6639,17 @@
         <f aca="false">IF(ISNUMBER(SEARCH("ΒΠΜ", $A162)), $L162, 0)</f>
         <v>0</v>
       </c>
-      <c r="X162" s="17"/>
-      <c r="Y162" s="17"/>
+      <c r="X162" s="18"/>
+      <c r="Y162" s="18"/>
     </row>
     <row r="163" customFormat="false" ht="39.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E163" s="32" t="str">
+      <c r="E163" s="33" t="str">
         <f aca="false">IF(SUM(N163:U163)&lt;8, "Δεν πήρατε κάποιο μάθημα!", "Συνεχίστε!")</f>
-        <v>Συνεχίστε!</v>
-      </c>
-      <c r="F163" s="32"/>
+        <v>Δεν πήρατε κάποιο μάθημα!</v>
+      </c>
+      <c r="F163" s="33"/>
       <c r="L163" s="1" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="N163" s="1" t="n">
         <f aca="false">IF( $D$14, IF(SUM(N105:N162)&gt;=4, 1, 0), 1)</f>
@@ -6986,64 +6681,64 @@
       </c>
       <c r="U163" s="1" t="n">
         <f aca="false">IF( $M$18, IF(SUM(U105:U162)&gt;=4, 1, 0), 1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="39.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F164" s="17" t="str">
+      <c r="F164" s="18" t="str">
         <f aca="false">IF(SUM(N163:T163)&lt;7, "Χρειάζονται 4 βασικά μαθήματα για κάθε ειδίκευση!",   IF(U163 &lt; 1, "Δεν πήρατε κάποιο ΒΠΜ!", ""))</f>
-        <v/>
-      </c>
-      <c r="G164" s="17"/>
-      <c r="H164" s="17"/>
-      <c r="I164" s="17"/>
-      <c r="J164" s="17"/>
+        <v>Δεν πήρατε κάποιο ΒΠΜ!</v>
+      </c>
+      <c r="G164" s="18"/>
+      <c r="H164" s="18"/>
+      <c r="I164" s="18"/>
+      <c r="J164" s="18"/>
     </row>
     <row r="165" customFormat="false" ht="39.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E165" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="F165" s="1" t="n">
+        <v>268</v>
+      </c>
+      <c r="F165" s="34" t="n">
         <f aca="false">SUMIF( L30:L47, "=1", D30:D47 ) + SUMIF( L53:L55, "=1", D53:D55 ) + SUMIF( L60:L70, "=1", D60:D70 ) + SUMIF( L78:L81, "=1", D78:D81 ) + SUMIF( L86:L88, "=1", D86:D88 ) + SUMIF( L93:L94, "=1", D93:D94 ) + SUMIF(L99:L100, "=1", D99:D100 ) + SUMIF(L105:L162, "=1", D105:D162 )</f>
-        <v>514</v>
+        <v>0</v>
       </c>
       <c r="G165" s="1" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="39.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E166" s="32" t="str">
+      <c r="E166" s="33" t="str">
         <f aca="false">IF(AND($D$10 = "Συνεχίστε!", $D$20 = "Συνεχίστε!", $E$48  = "Συνεχίστε!", $E$56 = "Συνεχίστε!", $E$71  = "Συνεχίστε!", $E$82  = "Συνεχίστε!", $E$89  = "Συνεχίστε!", $E$95  = "Συνεχίστε!", $E$101  = "Συνεχίστε!", $E$163  = "Συνεχίστε!"), IF($F$165 &lt; 240, "Δεν έχετε αρκετά ECTS!", "Συνεχίστε!"), "Διορθώστε τα προβλήματα!")</f>
-        <v>Συνεχίστε!</v>
-      </c>
-      <c r="F166" s="32"/>
+        <v>Διορθώστε τα προβλήματα!</v>
+      </c>
+      <c r="F166" s="33"/>
     </row>
     <row r="167" customFormat="false" ht="39.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E167" s="1" t="str">
         <f aca="false">IF(F167 = "", "", "Σχόλια:")</f>
         <v/>
       </c>
-      <c r="F167" s="17" t="str">
+      <c r="F167" s="18" t="str">
         <f aca="false">IF(E166 = "Δεν έχετε αρκετά ECTS!", "Δηλώστε κάποιο μάθημα προαιρετικό, επιλογής ή ειδίκευσης.", "")</f>
         <v/>
       </c>
-      <c r="G167" s="17"/>
-      <c r="H167" s="17"/>
+      <c r="G167" s="18"/>
+      <c r="H167" s="18"/>
     </row>
     <row r="169" customFormat="false" ht="39.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E169" s="17" t="str">
+      <c r="E169" s="18" t="str">
         <f aca="false">IF( $E$166  = "Συνεχίστε!", "Μπορείτε να πάρετε πτυχίο!", " Δεν πήρατε κάποια μαθήματα!")</f>
-        <v>Μπορείτε να πάρετε πτυχίο!</v>
-      </c>
-      <c r="F169" s="17"/>
+        <v> Δεν πήρατε κάποια μαθήματα!</v>
+      </c>
+      <c r="F169" s="18"/>
     </row>
     <row r="170" customFormat="false" ht="39.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E170" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="F170" s="33" t="n">
+        <v>270</v>
+      </c>
+      <c r="F170" s="35" t="e">
         <f aca="false">(SUMPRODUCT(E30:E47, D30:D47) + SUMPRODUCT(E53:E55, D53:D55) + SUMPRODUCT(E60:E70, D60:D70 ) + SUMPRODUCT(E78:E81, D78:D81) + SUMPRODUCT(E86:E88, D86:D88) + SUMPRODUCT(E93:E94, D93:D94) + SUMPRODUCT(E99:E100, D99:D100) + SUMPRODUCT(E105:E162, D105:D162))/$F$165</f>
-        <v>6.09727626459144</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -7225,403 +6920,4 @@
     <oddFooter>&amp;C&amp;"Arial,Regular"&amp;10Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:J24"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.62890625" defaultRowHeight="24" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="7.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="0" width="34.66"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>269</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>270</v>
-      </c>
-      <c r="H1" s="28" t="s">
-        <v>271</v>
-      </c>
-      <c r="I1" s="28" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="34" t="s">
-        <v>273</v>
-      </c>
-      <c r="B2" s="34" t="s">
-        <v>274</v>
-      </c>
-      <c r="C2" s="35" t="s">
-        <v>275</v>
-      </c>
-      <c r="D2" s="36" t="s">
-        <v>276</v>
-      </c>
-      <c r="H2" s="37" t="s">
-        <v>277</v>
-      </c>
-      <c r="I2" s="37" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="20" t="s">
-        <v>279</v>
-      </c>
-      <c r="B3" s="20" t="s">
-        <v>280</v>
-      </c>
-      <c r="C3" s="35" t="s">
-        <v>281</v>
-      </c>
-      <c r="D3" s="36"/>
-      <c r="H3" s="38" t="s">
-        <v>282</v>
-      </c>
-      <c r="I3" s="38" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="39" t="s">
-        <v>284</v>
-      </c>
-      <c r="H4" s="40" t="s">
-        <v>285</v>
-      </c>
-      <c r="I4" s="41" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="25" t="s">
-        <v>287</v>
-      </c>
-      <c r="H5" s="37" t="s">
-        <v>288</v>
-      </c>
-      <c r="I5" s="37" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="39" t="s">
-        <v>290</v>
-      </c>
-      <c r="H6" s="39" t="s">
-        <v>291</v>
-      </c>
-      <c r="I6" s="38" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="25" t="s">
-        <v>293</v>
-      </c>
-      <c r="H7" s="38" t="s">
-        <v>294</v>
-      </c>
-      <c r="I7" s="38" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H8" s="38" t="s">
-        <v>296</v>
-      </c>
-      <c r="I8" s="38" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H9" s="38" t="s">
-        <v>298</v>
-      </c>
-      <c r="I9" s="38" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H10" s="37" t="s">
-        <v>300</v>
-      </c>
-      <c r="I10" s="38" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H12" s="0" t="s">
-        <v>302</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="J12" s="0" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="43.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B13" s="0" t="s">
-        <v>305</v>
-      </c>
-      <c r="F13" s="0" t="s">
-        <v>306</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="J13" s="0" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="B14" s="0" t="n">
-        <v>124</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>309</v>
-      </c>
-      <c r="F14" s="0" t="n">
-        <v>124</v>
-      </c>
-      <c r="G14" s="0" t="s">
-        <v>309</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="J14" s="0" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B15" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>312</v>
-      </c>
-      <c r="F15" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="G15" s="0" t="s">
-        <v>312</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="J15" s="0" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>314</v>
-      </c>
-      <c r="B16" s="0" t="n">
-        <v>36</v>
-      </c>
-      <c r="C16" s="0" t="s">
-        <v>315</v>
-      </c>
-      <c r="F16" s="0" t="n">
-        <v>24</v>
-      </c>
-      <c r="G16" s="0" t="s">
-        <v>316</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="J16" s="0" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B17" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="C17" s="0" t="s">
-        <v>319</v>
-      </c>
-      <c r="F17" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="G17" s="0" t="s">
-        <v>319</v>
-      </c>
-      <c r="I17" s="1"/>
-    </row>
-    <row r="18" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B18" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="C18" s="0" t="s">
-        <v>320</v>
-      </c>
-      <c r="F18" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="G18" s="0" t="s">
-        <v>320</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="J18" s="0" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B19" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="C19" s="0" t="s">
-        <v>322</v>
-      </c>
-      <c r="F19" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="G19" s="0" t="s">
-        <v>322</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="J19" s="0" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
-        <v>314</v>
-      </c>
-      <c r="B20" s="0" t="n">
-        <v>42</v>
-      </c>
-      <c r="C20" s="0" t="s">
-        <v>324</v>
-      </c>
-      <c r="F20" s="0" t="n">
-        <v>24</v>
-      </c>
-      <c r="G20" s="0" t="s">
-        <v>325</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="J20" s="0" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B21" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="C21" s="0" t="s">
-        <v>327</v>
-      </c>
-      <c r="F21" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="G21" s="0" t="s">
-        <v>327</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="J21" s="0" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B22" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C22" s="0" t="s">
-        <v>329</v>
-      </c>
-      <c r="F22" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="G22" s="0" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F23" s="0" t="n">
-        <v>22</v>
-      </c>
-      <c r="G23" s="0" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B24" s="0" t="n">
-        <f aca="false">SUM(B14:B23)</f>
-        <v>240</v>
-      </c>
-      <c r="F24" s="0" t="n">
-        <f aca="false">SUM(F14:F23)</f>
-        <v>240</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D2:D3"/>
-  </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Arial,Regular"&amp;10&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Arial,Regular"&amp;10Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.62890625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Arial,Regular"&amp;10&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Arial,Regular"&amp;10Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
 </file>